--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7127,28 +7127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6116.370236381092</v>
+        <v>6366.48196939495</v>
       </c>
       <c r="AB2" t="n">
-        <v>8368.687592627904</v>
+        <v>8710.901499888394</v>
       </c>
       <c r="AC2" t="n">
-        <v>7569.991794313986</v>
+        <v>7879.545286565758</v>
       </c>
       <c r="AD2" t="n">
-        <v>6116370.236381092</v>
+        <v>6366481.96939495</v>
       </c>
       <c r="AE2" t="n">
-        <v>8368687.592627904</v>
+        <v>8710901.499888394</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.383485497575042e-07</v>
+        <v>7.761179466316447e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>7569991.794313986</v>
+        <v>7879545.286565758</v>
       </c>
     </row>
     <row r="3">
@@ -7233,28 +7233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2908.40329019482</v>
+        <v>3072.266596599863</v>
       </c>
       <c r="AB3" t="n">
-        <v>3979.405691342299</v>
+        <v>4203.610696304564</v>
       </c>
       <c r="AC3" t="n">
-        <v>3599.616797291405</v>
+        <v>3802.423991253764</v>
       </c>
       <c r="AD3" t="n">
-        <v>2908403.29019482</v>
+        <v>3072266.596599863</v>
       </c>
       <c r="AE3" t="n">
-        <v>3979405.691342299</v>
+        <v>4203610.696304564</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.50844664228258e-07</v>
+        <v>1.226632474445747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.71940104166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3599616.797291405</v>
+        <v>3802423.991253764</v>
       </c>
     </row>
     <row r="4">
@@ -7339,28 +7339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2370.26823737014</v>
+        <v>2508.231529897284</v>
       </c>
       <c r="AB4" t="n">
-        <v>3243.105571224544</v>
+        <v>3431.873034571095</v>
       </c>
       <c r="AC4" t="n">
-        <v>2933.588127234007</v>
+        <v>3104.339888815555</v>
       </c>
       <c r="AD4" t="n">
-        <v>2370268.237370139</v>
+        <v>2508231.529897283</v>
       </c>
       <c r="AE4" t="n">
-        <v>3243105.571224544</v>
+        <v>3431873.034571095</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.711934815431077e-07</v>
+        <v>1.400135081661874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.29231770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2933588.127234007</v>
+        <v>3104339.888815555</v>
       </c>
     </row>
     <row r="5">
@@ -7445,28 +7445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2146.563085118278</v>
+        <v>2275.893009849941</v>
       </c>
       <c r="AB5" t="n">
-        <v>2937.022312738575</v>
+        <v>3113.977221390211</v>
       </c>
       <c r="AC5" t="n">
-        <v>2656.717025347511</v>
+        <v>2816.783605875091</v>
       </c>
       <c r="AD5" t="n">
-        <v>2146563.085118278</v>
+        <v>2275893.009849941</v>
       </c>
       <c r="AE5" t="n">
-        <v>2937022.312738575</v>
+        <v>3113977.221390211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034682384393455e-06</v>
+        <v>1.491664773599009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2656717.025347511</v>
+        <v>2816783.605875091</v>
       </c>
     </row>
     <row r="6">
@@ -7551,28 +7551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2019.875805059765</v>
+        <v>2140.657702850512</v>
       </c>
       <c r="AB6" t="n">
-        <v>2763.683187114175</v>
+        <v>2928.94230819274</v>
       </c>
       <c r="AC6" t="n">
-        <v>2499.921142589713</v>
+        <v>2649.408165095173</v>
       </c>
       <c r="AD6" t="n">
-        <v>2019875.805059765</v>
+        <v>2140657.702850512</v>
       </c>
       <c r="AE6" t="n">
-        <v>2763683.187114175</v>
+        <v>2928942.30819274</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.075203242977353e-06</v>
+        <v>1.550082253453004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.26822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2499921.142589713</v>
+        <v>2649408.165095172</v>
       </c>
     </row>
     <row r="7">
@@ -7657,28 +7657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1936.389822512743</v>
+        <v>2057.256971649512</v>
       </c>
       <c r="AB7" t="n">
-        <v>2649.453982651734</v>
+        <v>2814.829748382947</v>
       </c>
       <c r="AC7" t="n">
-        <v>2396.593813079471</v>
+        <v>2546.186347835642</v>
       </c>
       <c r="AD7" t="n">
-        <v>1936389.822512743</v>
+        <v>2057256.971649512</v>
       </c>
       <c r="AE7" t="n">
-        <v>2649453.982651734</v>
+        <v>2814829.748382947</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.102186026688751e-06</v>
+        <v>1.588982372526286e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.57486979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2396593.813079471</v>
+        <v>2546186.347835642</v>
       </c>
     </row>
     <row r="8">
@@ -7763,28 +7763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1881.281288503042</v>
+        <v>2001.977845439219</v>
       </c>
       <c r="AB8" t="n">
-        <v>2574.052055202728</v>
+        <v>2739.194409159095</v>
       </c>
       <c r="AC8" t="n">
-        <v>2328.388139758929</v>
+        <v>2477.769539232449</v>
       </c>
       <c r="AD8" t="n">
-        <v>1881281.288503042</v>
+        <v>2001977.845439219</v>
       </c>
       <c r="AE8" t="n">
-        <v>2574052.055202728</v>
+        <v>2739194.409159095</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.122259723913493e-06</v>
+        <v>1.617921907476997e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.080078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2328388.139758929</v>
+        <v>2477769.539232449</v>
       </c>
     </row>
     <row r="9">
@@ -7869,28 +7869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1831.943946615954</v>
+        <v>1952.725754898151</v>
       </c>
       <c r="AB9" t="n">
-        <v>2506.546527422907</v>
+        <v>2671.805526031923</v>
       </c>
       <c r="AC9" t="n">
-        <v>2267.325244805811</v>
+        <v>2416.812156530043</v>
       </c>
       <c r="AD9" t="n">
-        <v>1831943.946615954</v>
+        <v>1952725.754898151</v>
       </c>
       <c r="AE9" t="n">
-        <v>2506546.527422907</v>
+        <v>2671805.526031923</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.137104923256442e-06</v>
+        <v>1.63932370309171e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.728515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2267325.244805811</v>
+        <v>2416812.156530044</v>
       </c>
     </row>
     <row r="10">
@@ -7975,28 +7975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1798.406438838924</v>
+        <v>1919.01765492053</v>
       </c>
       <c r="AB10" t="n">
-        <v>2460.659029711955</v>
+        <v>2625.684616546123</v>
       </c>
       <c r="AC10" t="n">
-        <v>2225.817185472884</v>
+        <v>2375.092961914466</v>
       </c>
       <c r="AD10" t="n">
-        <v>1798406.438838925</v>
+        <v>1919017.65492053</v>
       </c>
       <c r="AE10" t="n">
-        <v>2460659.029711955</v>
+        <v>2625684.616546123</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.149149141591287e-06</v>
+        <v>1.656687424062137e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.44856770833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2225817.185472884</v>
+        <v>2375092.961914466</v>
       </c>
     </row>
     <row r="11">
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1769.612733443314</v>
+        <v>1881.761263438579</v>
       </c>
       <c r="AB11" t="n">
-        <v>2421.262211701051</v>
+        <v>2574.708778084529</v>
       </c>
       <c r="AC11" t="n">
-        <v>2190.180344479159</v>
+        <v>2328.982185930607</v>
       </c>
       <c r="AD11" t="n">
-        <v>1769612.733443314</v>
+        <v>1881761.263438579</v>
       </c>
       <c r="AE11" t="n">
-        <v>2421262.211701051</v>
+        <v>2574708.778084529</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.158859209086046e-06</v>
+        <v>1.670686082828993e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.22721354166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2190180.344479159</v>
+        <v>2328982.185930606</v>
       </c>
     </row>
     <row r="12">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1747.355276637015</v>
+        <v>1859.50380663228</v>
       </c>
       <c r="AB12" t="n">
-        <v>2390.808577368979</v>
+        <v>2544.255143752457</v>
       </c>
       <c r="AC12" t="n">
-        <v>2162.633162265797</v>
+        <v>2301.435003717243</v>
       </c>
       <c r="AD12" t="n">
-        <v>1747355.276637015</v>
+        <v>1859503.806632279</v>
       </c>
       <c r="AE12" t="n">
-        <v>2390808.577368979</v>
+        <v>2544255.143752457</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.166421857807926e-06</v>
+        <v>1.681588884368563e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.0546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2162633.162265797</v>
+        <v>2301435.003717244</v>
       </c>
     </row>
     <row r="13">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1715.39569371177</v>
+        <v>1836.092161139396</v>
       </c>
       <c r="AB13" t="n">
-        <v>2347.080066053371</v>
+        <v>2512.222297540189</v>
       </c>
       <c r="AC13" t="n">
-        <v>2123.078038696799</v>
+        <v>2272.459327389093</v>
       </c>
       <c r="AD13" t="n">
-        <v>1715395.69371177</v>
+        <v>1836092.161139396</v>
       </c>
       <c r="AE13" t="n">
-        <v>2347080.066053371</v>
+        <v>2512222.297540189</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.173424310328185e-06</v>
+        <v>1.691684070979277e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.8984375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2123078.038696798</v>
+        <v>2272459.327389093</v>
       </c>
     </row>
     <row r="14">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1697.674435936759</v>
+        <v>1818.370903364384</v>
       </c>
       <c r="AB14" t="n">
-        <v>2322.833059358884</v>
+        <v>2487.975290845703</v>
       </c>
       <c r="AC14" t="n">
-        <v>2101.145132290347</v>
+        <v>2250.52642098264</v>
       </c>
       <c r="AD14" t="n">
-        <v>1697674.435936759</v>
+        <v>1818370.903364384</v>
       </c>
       <c r="AE14" t="n">
-        <v>2322833.059358885</v>
+        <v>2487975.290845703</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.178279344075564e-06</v>
+        <v>1.698683400362705e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.79427083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2101145.132290347</v>
+        <v>2250526.42098264</v>
       </c>
     </row>
     <row r="15">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1679.168763726508</v>
+        <v>1791.402545067793</v>
       </c>
       <c r="AB15" t="n">
-        <v>2297.512782228181</v>
+        <v>2451.075993264308</v>
       </c>
       <c r="AC15" t="n">
-        <v>2078.241386871765</v>
+        <v>2217.148740573924</v>
       </c>
       <c r="AD15" t="n">
-        <v>1679168.763726508</v>
+        <v>1791402.545067793</v>
       </c>
       <c r="AE15" t="n">
-        <v>2297512.782228181</v>
+        <v>2451075.993264308</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.183507841957358e-06</v>
+        <v>1.706221139698704e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.68033854166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2078241.386871765</v>
+        <v>2217148.740573925</v>
       </c>
     </row>
     <row r="16">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1662.522764845791</v>
+        <v>1774.756546187076</v>
       </c>
       <c r="AB16" t="n">
-        <v>2274.736992189942</v>
+        <v>2428.300203226069</v>
       </c>
       <c r="AC16" t="n">
-        <v>2057.639286268753</v>
+        <v>2196.546639970913</v>
       </c>
       <c r="AD16" t="n">
-        <v>1662522.764845791</v>
+        <v>1774756.546187076</v>
       </c>
       <c r="AE16" t="n">
-        <v>2274736.992189942</v>
+        <v>2428300.203226069</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.187989411570323e-06</v>
+        <v>1.71268205912956e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.58268229166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2057639.286268754</v>
+        <v>2196546.639970913</v>
       </c>
     </row>
     <row r="17">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1646.571786337657</v>
+        <v>1758.805567678942</v>
       </c>
       <c r="AB17" t="n">
-        <v>2252.912159687607</v>
+        <v>2406.475370723734</v>
       </c>
       <c r="AC17" t="n">
-        <v>2037.897385149096</v>
+        <v>2176.804738851255</v>
       </c>
       <c r="AD17" t="n">
-        <v>1646571.786337657</v>
+        <v>1758805.567678942</v>
       </c>
       <c r="AE17" t="n">
-        <v>2252912.159687607</v>
+        <v>2406475.370723734</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.191257222746444e-06</v>
+        <v>1.71739314621456e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.51432291666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2037897.385149096</v>
+        <v>2176804.738851255</v>
       </c>
     </row>
     <row r="18">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1631.025540827306</v>
+        <v>1743.088729968</v>
       </c>
       <c r="AB18" t="n">
-        <v>2231.641100728398</v>
+        <v>2384.970899989678</v>
       </c>
       <c r="AC18" t="n">
-        <v>2018.656406202836</v>
+        <v>2157.352624622344</v>
       </c>
       <c r="AD18" t="n">
-        <v>1631025.540827306</v>
+        <v>1743088.729968</v>
       </c>
       <c r="AE18" t="n">
-        <v>2231641.100728398</v>
+        <v>2384970.899989678</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.195178596157789e-06</v>
+        <v>1.72304645071656e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.4296875</v>
       </c>
       <c r="AH18" t="n">
-        <v>2018656.406202836</v>
+        <v>2157352.624622344</v>
       </c>
     </row>
     <row r="19">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1616.35213679246</v>
+        <v>1728.415325933152</v>
       </c>
       <c r="AB19" t="n">
-        <v>2211.564301983022</v>
+        <v>2364.894101244302</v>
       </c>
       <c r="AC19" t="n">
-        <v>2000.495708951754</v>
+        <v>2139.191927371262</v>
       </c>
       <c r="AD19" t="n">
-        <v>1616352.13679246</v>
+        <v>1728415.325933152</v>
       </c>
       <c r="AE19" t="n">
-        <v>2211564.301983022</v>
+        <v>2364894.101244302</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.19872650543472e-06</v>
+        <v>1.728161345265988e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.35481770833333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2000495.708951754</v>
+        <v>2139191.927371263</v>
       </c>
     </row>
     <row r="20">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1603.563249140159</v>
+        <v>1715.626438280852</v>
       </c>
       <c r="AB20" t="n">
-        <v>2194.065981691241</v>
+        <v>2347.395780952521</v>
       </c>
       <c r="AC20" t="n">
-        <v>1984.667403789574</v>
+        <v>2123.363622209082</v>
       </c>
       <c r="AD20" t="n">
-        <v>1603563.249140159</v>
+        <v>1715626.438280852</v>
       </c>
       <c r="AE20" t="n">
-        <v>2194065.981691241</v>
+        <v>2347395.780952521</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201247388342013e-06</v>
+        <v>1.731795612445845e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.29947916666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1984667.403789574</v>
+        <v>2123363.622209082</v>
       </c>
     </row>
     <row r="21">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1591.858550250893</v>
+        <v>1703.921739391587</v>
       </c>
       <c r="AB21" t="n">
-        <v>2178.051096296077</v>
+        <v>2331.380895557357</v>
       </c>
       <c r="AC21" t="n">
-        <v>1970.180956579492</v>
+        <v>2108.877174999</v>
       </c>
       <c r="AD21" t="n">
-        <v>1591858.550250893</v>
+        <v>1703921.739391587</v>
       </c>
       <c r="AE21" t="n">
-        <v>2178051.096296077</v>
+        <v>2331380.895557357</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.202927976946875e-06</v>
+        <v>1.734218457232416e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.26692708333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1970180.956579492</v>
+        <v>2108877.174999</v>
       </c>
     </row>
     <row r="22">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1576.786015871344</v>
+        <v>1688.849205012037</v>
       </c>
       <c r="AB22" t="n">
-        <v>2157.428189804691</v>
+        <v>2310.75798906597</v>
       </c>
       <c r="AC22" t="n">
-        <v>1951.526271339212</v>
+        <v>2090.22248975872</v>
       </c>
       <c r="AD22" t="n">
-        <v>1576786.015871344</v>
+        <v>1688849.205012037</v>
       </c>
       <c r="AE22" t="n">
-        <v>2157428.18980469</v>
+        <v>2310757.98906597</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.205635591921376e-06</v>
+        <v>1.738121929388558e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1951526.271339212</v>
+        <v>2090222.48975872</v>
       </c>
     </row>
     <row r="23">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1567.074833330882</v>
+        <v>1679.138022471575</v>
       </c>
       <c r="AB23" t="n">
-        <v>2144.140921425694</v>
+        <v>2297.470720686973</v>
       </c>
       <c r="AC23" t="n">
-        <v>1939.507121205508</v>
+        <v>2078.203339625017</v>
       </c>
       <c r="AD23" t="n">
-        <v>1567074.833330882</v>
+        <v>1679138.022471575</v>
       </c>
       <c r="AE23" t="n">
-        <v>2144140.921425694</v>
+        <v>2297470.720686974</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.206662618291014e-06</v>
+        <v>1.739602556758129e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.185546875</v>
       </c>
       <c r="AH23" t="n">
-        <v>1939507.121205508</v>
+        <v>2078203.339625017</v>
       </c>
     </row>
     <row r="24">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1554.598577451468</v>
+        <v>1666.661766592161</v>
       </c>
       <c r="AB24" t="n">
-        <v>2127.070357717916</v>
+        <v>2280.400156979196</v>
       </c>
       <c r="AC24" t="n">
-        <v>1924.065748139315</v>
+        <v>2062.761966558823</v>
       </c>
       <c r="AD24" t="n">
-        <v>1554598.577451468</v>
+        <v>1666661.766592161</v>
       </c>
       <c r="AE24" t="n">
-        <v>2127070.357717916</v>
+        <v>2280400.156979196</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.2089967691311e-06</v>
+        <v>1.742967618961701e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.13997395833333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1924065.748139315</v>
+        <v>2062761.966558823</v>
       </c>
     </row>
     <row r="25">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1543.279737660886</v>
+        <v>1655.342926801579</v>
       </c>
       <c r="AB25" t="n">
-        <v>2111.583421764473</v>
+        <v>2264.913221025753</v>
       </c>
       <c r="AC25" t="n">
-        <v>1910.056863617217</v>
+        <v>2048.753082036725</v>
       </c>
       <c r="AD25" t="n">
-        <v>1543279.737660886</v>
+        <v>1655342.926801579</v>
       </c>
       <c r="AE25" t="n">
-        <v>2111583.421764473</v>
+        <v>2264913.221025753</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.210023795500738e-06</v>
+        <v>1.744448246331272e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.1171875</v>
       </c>
       <c r="AH25" t="n">
-        <v>1910056.863617217</v>
+        <v>2048753.082036725</v>
       </c>
     </row>
     <row r="26">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1532.250384828212</v>
+        <v>1644.313573968905</v>
       </c>
       <c r="AB26" t="n">
-        <v>2096.492574638103</v>
+        <v>2249.822373899382</v>
       </c>
       <c r="AC26" t="n">
-        <v>1896.40626576045</v>
+        <v>2035.102484179959</v>
       </c>
       <c r="AD26" t="n">
-        <v>1532250.384828212</v>
+        <v>1644313.573968905</v>
       </c>
       <c r="AE26" t="n">
-        <v>2096492.574638103</v>
+        <v>2249822.373899382</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.211330919971186e-06</v>
+        <v>1.746332681165272e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.09114583333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>1896406.26576045</v>
+        <v>2035102.484179958</v>
       </c>
     </row>
     <row r="27">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1532.720975631611</v>
+        <v>1636.321478685963</v>
       </c>
       <c r="AB27" t="n">
-        <v>2097.136457736313</v>
+        <v>2238.887236546902</v>
       </c>
       <c r="AC27" t="n">
-        <v>1896.988697559463</v>
+        <v>2025.210980988837</v>
       </c>
       <c r="AD27" t="n">
-        <v>1532720.97563161</v>
+        <v>1636321.478685963</v>
       </c>
       <c r="AE27" t="n">
-        <v>2097136.457736313</v>
+        <v>2238887.236546902</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.211984482206411e-06</v>
+        <v>1.747274898582272e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH27" t="n">
-        <v>1896988.697559463</v>
+        <v>2025210.980988837</v>
       </c>
     </row>
     <row r="28">
@@ -9883,28 +9883,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1535.37048231567</v>
+        <v>1638.970985370023</v>
       </c>
       <c r="AB28" t="n">
-        <v>2100.761629669429</v>
+        <v>2242.512408480017</v>
       </c>
       <c r="AC28" t="n">
-        <v>1900.267888171243</v>
+        <v>2028.490171600616</v>
       </c>
       <c r="AD28" t="n">
-        <v>1535370.48231567</v>
+        <v>1638970.985370023</v>
       </c>
       <c r="AE28" t="n">
-        <v>2100761.629669429</v>
+        <v>2242512.408480017</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.212171214273617e-06</v>
+        <v>1.747544103558557e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25.07161458333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>1900267.888171243</v>
+        <v>2028490.171600616</v>
       </c>
     </row>
     <row r="29">
@@ -9989,28 +9989,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1540.904870231166</v>
+        <v>1644.505373285519</v>
       </c>
       <c r="AB29" t="n">
-        <v>2108.334023375374</v>
+        <v>2250.084802185962</v>
       </c>
       <c r="AC29" t="n">
-        <v>1907.117583249814</v>
+        <v>2035.339866679188</v>
       </c>
       <c r="AD29" t="n">
-        <v>1540904.870231166</v>
+        <v>1644505.373285519</v>
       </c>
       <c r="AE29" t="n">
-        <v>2108334.023375374</v>
+        <v>2250084.802185962</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.212077848240014e-06</v>
+        <v>1.747409501070415e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25.07486979166667</v>
       </c>
       <c r="AH29" t="n">
-        <v>1907117.583249814</v>
+        <v>2035339.866679188</v>
       </c>
     </row>
     <row r="30">
@@ -10095,28 +10095,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>1544.932485651611</v>
+        <v>1648.532988705963</v>
       </c>
       <c r="AB30" t="n">
-        <v>2113.844784479478</v>
+        <v>2255.595563290066</v>
       </c>
       <c r="AC30" t="n">
-        <v>1912.102405048544</v>
+        <v>2040.324688477917</v>
       </c>
       <c r="AD30" t="n">
-        <v>1544932.485651611</v>
+        <v>1648532.988705963</v>
       </c>
       <c r="AE30" t="n">
-        <v>2113844.784479478</v>
+        <v>2255595.563290066</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.212171214273617e-06</v>
+        <v>1.747544103558557e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25.07486979166667</v>
       </c>
       <c r="AH30" t="n">
-        <v>1912102.405048544</v>
+        <v>2040324.688477917</v>
       </c>
     </row>
     <row r="31">
@@ -10201,28 +10201,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>1551.04933158692</v>
+        <v>1654.649834641272</v>
       </c>
       <c r="AB31" t="n">
-        <v>2122.214122944365</v>
+        <v>2263.964901754954</v>
       </c>
       <c r="AC31" t="n">
-        <v>1919.672985596783</v>
+        <v>2047.895269026156</v>
       </c>
       <c r="AD31" t="n">
-        <v>1551049.33158692</v>
+        <v>1654649.834641272</v>
       </c>
       <c r="AE31" t="n">
-        <v>2122214.122944365</v>
+        <v>2263964.901754953</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.212077848240014e-06</v>
+        <v>1.747409501070415e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>25.07486979166667</v>
       </c>
       <c r="AH31" t="n">
-        <v>1919672.985596783</v>
+        <v>2047895.269026156</v>
       </c>
     </row>
   </sheetData>
@@ -10498,28 +10498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4256.431781670369</v>
+        <v>4466.696688836302</v>
       </c>
       <c r="AB2" t="n">
-        <v>5823.837744199054</v>
+        <v>6111.531466416522</v>
       </c>
       <c r="AC2" t="n">
-        <v>5268.018843700089</v>
+        <v>5528.255480849783</v>
       </c>
       <c r="AD2" t="n">
-        <v>4256431.781670369</v>
+        <v>4466696.688836303</v>
       </c>
       <c r="AE2" t="n">
-        <v>5823837.744199054</v>
+        <v>6111531.466416522</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598745647411822e-07</v>
+        <v>9.660315389909434e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.64322916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5268018.843700089</v>
+        <v>5528255.480849784</v>
       </c>
     </row>
     <row r="3">
@@ -10604,28 +10604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2355.521978515369</v>
+        <v>2498.447586749829</v>
       </c>
       <c r="AB3" t="n">
-        <v>3222.92908930042</v>
+        <v>3418.486211919639</v>
       </c>
       <c r="AC3" t="n">
-        <v>2915.337260426853</v>
+        <v>3092.230685729432</v>
       </c>
       <c r="AD3" t="n">
-        <v>2355521.978515369</v>
+        <v>2498447.586749829</v>
       </c>
       <c r="AE3" t="n">
-        <v>3222929.089300421</v>
+        <v>3418486.211919639</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.497287170813881e-07</v>
+        <v>1.390367114007311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.10546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2915337.260426853</v>
+        <v>3092230.685729431</v>
       </c>
     </row>
     <row r="4">
@@ -10710,28 +10710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1977.457170357207</v>
+        <v>2111.965265528112</v>
       </c>
       <c r="AB4" t="n">
-        <v>2705.644139736048</v>
+        <v>2889.684049627233</v>
       </c>
       <c r="AC4" t="n">
-        <v>2447.42126043504</v>
+        <v>2613.896659627846</v>
       </c>
       <c r="AD4" t="n">
-        <v>1977457.170357207</v>
+        <v>2111965.265528112</v>
       </c>
       <c r="AE4" t="n">
-        <v>2705644.139736048</v>
+        <v>2889684.049627233</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.057615117669196e-06</v>
+        <v>1.548308745894442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.7265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2447421.26043504</v>
+        <v>2613896.659627846</v>
       </c>
     </row>
     <row r="5">
@@ -10816,28 +10816,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1818.029889022527</v>
+        <v>1935.788567446549</v>
       </c>
       <c r="AB5" t="n">
-        <v>2487.508699978682</v>
+        <v>2648.631318944666</v>
       </c>
       <c r="AC5" t="n">
-        <v>2250.104360893103</v>
+        <v>2395.84966324199</v>
       </c>
       <c r="AD5" t="n">
-        <v>1818029.889022527</v>
+        <v>1935788.567446548</v>
       </c>
       <c r="AE5" t="n">
-        <v>2487508.699978682</v>
+        <v>2648631.318944666</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.114600772411189e-06</v>
+        <v>1.631733600696061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.20638020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2250104.360893103</v>
+        <v>2395849.66324199</v>
       </c>
     </row>
     <row r="6">
@@ -10922,28 +10922,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1725.034974293465</v>
+        <v>1842.708311862915</v>
       </c>
       <c r="AB6" t="n">
-        <v>2360.268955000292</v>
+        <v>2521.274806844078</v>
       </c>
       <c r="AC6" t="n">
-        <v>2135.008198593348</v>
+        <v>2280.647877910294</v>
       </c>
       <c r="AD6" t="n">
-        <v>1725034.974293465</v>
+        <v>1842708.311862915</v>
       </c>
       <c r="AE6" t="n">
-        <v>2360268.955000293</v>
+        <v>2521274.806844078</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.148792165256385e-06</v>
+        <v>1.681788513577032e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.36979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2135008.198593347</v>
+        <v>2280647.877910295</v>
       </c>
     </row>
     <row r="7">
@@ -11028,28 +11028,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1658.608337854298</v>
+        <v>1776.366926769768</v>
       </c>
       <c r="AB7" t="n">
-        <v>2269.381100487851</v>
+        <v>2430.503596984286</v>
       </c>
       <c r="AC7" t="n">
-        <v>2052.794553353669</v>
+        <v>2198.539744921327</v>
       </c>
       <c r="AD7" t="n">
-        <v>1658608.337854298</v>
+        <v>1776366.926769769</v>
       </c>
       <c r="AE7" t="n">
-        <v>2269381.100487851</v>
+        <v>2430503.596984286</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.171779598864172e-06</v>
+        <v>1.715441251615651e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.83268229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2052794.553353668</v>
+        <v>2198539.744921328</v>
       </c>
     </row>
     <row r="8">
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1615.364379892023</v>
+        <v>1732.952376606902</v>
       </c>
       <c r="AB8" t="n">
-        <v>2210.212809415087</v>
+        <v>2371.101894136675</v>
       </c>
       <c r="AC8" t="n">
-        <v>1999.273200937671</v>
+        <v>2144.807257222679</v>
       </c>
       <c r="AD8" t="n">
-        <v>1615364.379892023</v>
+        <v>1732952.376606902</v>
       </c>
       <c r="AE8" t="n">
-        <v>2210212.809415087</v>
+        <v>2371101.894136675</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.18887529528677e-06</v>
+        <v>1.740468708056136e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.4453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1999273.200937671</v>
+        <v>2144807.257222679</v>
       </c>
     </row>
     <row r="9">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1578.652525784294</v>
+        <v>1687.993780653313</v>
       </c>
       <c r="AB9" t="n">
-        <v>2159.982031012195</v>
+        <v>2309.587559719705</v>
       </c>
       <c r="AC9" t="n">
-        <v>1953.836377526211</v>
+        <v>2089.163764546554</v>
       </c>
       <c r="AD9" t="n">
-        <v>1578652.525784294</v>
+        <v>1687993.780653313</v>
       </c>
       <c r="AE9" t="n">
-        <v>2159982.031012195</v>
+        <v>2309587.559719705</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.202590486767046e-06</v>
+        <v>1.760547232432119e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.14583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1953836.377526211</v>
+        <v>2089163.764546554</v>
       </c>
     </row>
     <row r="10">
@@ -11346,28 +11346,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1540.979825774683</v>
+        <v>1658.653073835582</v>
       </c>
       <c r="AB10" t="n">
-        <v>2108.436580856818</v>
+        <v>2269.442310231056</v>
       </c>
       <c r="AC10" t="n">
-        <v>1907.21035278917</v>
+        <v>2052.849921324891</v>
       </c>
       <c r="AD10" t="n">
-        <v>1540979.825774683</v>
+        <v>1658653.073835582</v>
       </c>
       <c r="AE10" t="n">
-        <v>2108436.580856818</v>
+        <v>2269442.310231056</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.212925173305001e-06</v>
+        <v>1.775676824743599e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.92122395833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1907210.35278917</v>
+        <v>2052849.921324891</v>
       </c>
     </row>
     <row r="11">
@@ -11452,28 +11452,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1515.926348807156</v>
+        <v>1633.599596868055</v>
       </c>
       <c r="AB11" t="n">
-        <v>2074.157308388451</v>
+        <v>2235.163037762689</v>
       </c>
       <c r="AC11" t="n">
-        <v>1876.202645973923</v>
+        <v>2021.842214509643</v>
       </c>
       <c r="AD11" t="n">
-        <v>1515926.348807156</v>
+        <v>1633599.596868055</v>
       </c>
       <c r="AE11" t="n">
-        <v>2074157.308388451</v>
+        <v>2235163.037762689</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.220555455889098e-06</v>
+        <v>1.786847271403477e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.75846354166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1876202.645973923</v>
+        <v>2021842.214509643</v>
       </c>
     </row>
     <row r="12">
@@ -11558,28 +11558,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1490.403481842398</v>
+        <v>1599.829988057438</v>
       </c>
       <c r="AB12" t="n">
-        <v>2039.235795817848</v>
+        <v>2188.957969178007</v>
       </c>
       <c r="AC12" t="n">
-        <v>1844.613993550407</v>
+        <v>1980.046892821463</v>
       </c>
       <c r="AD12" t="n">
-        <v>1490403.481842398</v>
+        <v>1599829.988057438</v>
       </c>
       <c r="AE12" t="n">
-        <v>2039235.795817848</v>
+        <v>2188957.969178007</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.227895980906711e-06</v>
+        <v>1.797593523886397e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.60546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1844613.993550407</v>
+        <v>1980046.892821463</v>
       </c>
     </row>
     <row r="13">
@@ -11664,28 +11664,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1471.176080806079</v>
+        <v>1580.431994820526</v>
       </c>
       <c r="AB13" t="n">
-        <v>2012.928017466889</v>
+        <v>2162.416779052201</v>
       </c>
       <c r="AC13" t="n">
-        <v>1820.816992642065</v>
+        <v>1956.038756630469</v>
       </c>
       <c r="AD13" t="n">
-        <v>1471176.080806079</v>
+        <v>1580431.994820526</v>
       </c>
       <c r="AE13" t="n">
-        <v>2012928.017466889</v>
+        <v>2162416.779052201</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.233497960525415e-06</v>
+        <v>1.805794611307573e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.48828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1820816.992642065</v>
+        <v>1956038.756630469</v>
       </c>
     </row>
     <row r="14">
@@ -11770,28 +11770,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1452.821175721994</v>
+        <v>1562.077089736442</v>
       </c>
       <c r="AB14" t="n">
-        <v>1987.814026569582</v>
+        <v>2137.302788154894</v>
       </c>
       <c r="AC14" t="n">
-        <v>1798.099845788289</v>
+        <v>1933.321609776693</v>
       </c>
       <c r="AD14" t="n">
-        <v>1452821.175721994</v>
+        <v>1562077.089736442</v>
       </c>
       <c r="AE14" t="n">
-        <v>1987814.026569582</v>
+        <v>2137302.788154894</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.237457980600706e-06</v>
+        <v>1.81159193172599e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.40690104166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1798099.845788289</v>
+        <v>1933321.609776693</v>
       </c>
     </row>
     <row r="15">
@@ -11876,28 +11876,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1431.246093196261</v>
+        <v>1540.502007210708</v>
       </c>
       <c r="AB15" t="n">
-        <v>1958.294046832408</v>
+        <v>2107.782808417721</v>
       </c>
       <c r="AC15" t="n">
-        <v>1771.39721148568</v>
+        <v>1906.618975474084</v>
       </c>
       <c r="AD15" t="n">
-        <v>1431246.093196261</v>
+        <v>1540502.007210708</v>
       </c>
       <c r="AE15" t="n">
-        <v>1958294.046832408</v>
+        <v>2107782.808417721</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.242094101664462e-06</v>
+        <v>1.818379038557309e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1771397.21148568</v>
+        <v>1906618.975474084</v>
       </c>
     </row>
     <row r="16">
@@ -11982,28 +11982,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1412.688706147107</v>
+        <v>1521.944620161555</v>
       </c>
       <c r="AB16" t="n">
-        <v>1932.903011177621</v>
+        <v>2082.391772762933</v>
       </c>
       <c r="AC16" t="n">
-        <v>1748.429460637243</v>
+        <v>1883.651224625648</v>
       </c>
       <c r="AD16" t="n">
-        <v>1412688.706147107</v>
+        <v>1521944.620161555</v>
       </c>
       <c r="AE16" t="n">
-        <v>1932903.011177621</v>
+        <v>2082391.772762933</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.245571192462278e-06</v>
+        <v>1.823469368680797e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.244140625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1748429.460637243</v>
+        <v>1883651.224625648</v>
       </c>
     </row>
     <row r="17">
@@ -12088,28 +12088,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1390.493376167106</v>
+        <v>1499.749290181554</v>
       </c>
       <c r="AB17" t="n">
-        <v>1902.534381510133</v>
+        <v>2052.023143095445</v>
       </c>
       <c r="AC17" t="n">
-        <v>1720.95917036258</v>
+        <v>1856.180934350985</v>
       </c>
       <c r="AD17" t="n">
-        <v>1390493.376167106</v>
+        <v>1499749.290181554</v>
       </c>
       <c r="AE17" t="n">
-        <v>1902534.381510133</v>
+        <v>2052023.143095445</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.24914486911559e-06</v>
+        <v>1.828701096863272e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.16927083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1720959.17036258</v>
+        <v>1856180.934350985</v>
       </c>
     </row>
     <row r="18">
@@ -12194,28 +12194,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1374.030577871245</v>
+        <v>1483.286491885692</v>
       </c>
       <c r="AB18" t="n">
-        <v>1880.009254594332</v>
+        <v>2029.498016179645</v>
       </c>
       <c r="AC18" t="n">
-        <v>1700.58380994541</v>
+        <v>1835.805573933814</v>
       </c>
       <c r="AD18" t="n">
-        <v>1374030.577871245</v>
+        <v>1483286.491885692</v>
       </c>
       <c r="AE18" t="n">
-        <v>1880009.254594332</v>
+        <v>2029498.016179645</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.252428788202416e-06</v>
+        <v>1.833508630868788e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1700583.80994541</v>
+        <v>1835805.573933814</v>
       </c>
     </row>
     <row r="19">
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1368.649723760805</v>
+        <v>1477.905637775253</v>
       </c>
       <c r="AB19" t="n">
-        <v>1872.6469326139</v>
+        <v>2022.135694199212</v>
       </c>
       <c r="AC19" t="n">
-        <v>1693.924137641706</v>
+        <v>1829.14590163011</v>
       </c>
       <c r="AD19" t="n">
-        <v>1368649.723760805</v>
+        <v>1477905.637775253</v>
       </c>
       <c r="AE19" t="n">
-        <v>1872646.9326139</v>
+        <v>2022135.694199212</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.253298060901871e-06</v>
+        <v>1.834781213399661e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.08463541666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1693924.137641706</v>
+        <v>1829145.90163011</v>
       </c>
     </row>
     <row r="20">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1371.899077448508</v>
+        <v>1481.154991462955</v>
       </c>
       <c r="AB20" t="n">
-        <v>1877.092841680782</v>
+        <v>2026.581603266095</v>
       </c>
       <c r="AC20" t="n">
-        <v>1697.945735387118</v>
+        <v>1833.167499375522</v>
       </c>
       <c r="AD20" t="n">
-        <v>1371899.077448508</v>
+        <v>1481154.991462955</v>
       </c>
       <c r="AE20" t="n">
-        <v>1877092.841680782</v>
+        <v>2026581.603266095</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.253104889190881e-06</v>
+        <v>1.834498417281689e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.09114583333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1697945.735387118</v>
+        <v>1833167.499375522</v>
       </c>
     </row>
     <row r="21">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1376.198417376116</v>
+        <v>1485.454331390563</v>
       </c>
       <c r="AB21" t="n">
-        <v>1882.975388243226</v>
+        <v>2032.464149828538</v>
       </c>
       <c r="AC21" t="n">
-        <v>1703.266859961848</v>
+        <v>1838.488623950252</v>
       </c>
       <c r="AD21" t="n">
-        <v>1376198.417376116</v>
+        <v>1485454.331390563</v>
       </c>
       <c r="AE21" t="n">
-        <v>1882975.388243226</v>
+        <v>2032464.149828539</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.252911717479891e-06</v>
+        <v>1.834215621163717e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.09440104166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1703266.859961848</v>
+        <v>1838488.623950252</v>
       </c>
     </row>
     <row r="22">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1381.646475376088</v>
+        <v>1490.902389390536</v>
       </c>
       <c r="AB22" t="n">
-        <v>1890.429661550145</v>
+        <v>2039.918423135457</v>
       </c>
       <c r="AC22" t="n">
-        <v>1710.009707886493</v>
+        <v>1845.231471874897</v>
       </c>
       <c r="AD22" t="n">
-        <v>1381646.475376088</v>
+        <v>1490902.389390536</v>
       </c>
       <c r="AE22" t="n">
-        <v>1890429.661550145</v>
+        <v>2039918.423135457</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.253008303335386e-06</v>
+        <v>1.834357019222703e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.09114583333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1710009.707886493</v>
+        <v>1845231.471874897</v>
       </c>
     </row>
   </sheetData>
@@ -12915,28 +12915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1724.928123297038</v>
+        <v>1856.972031779115</v>
       </c>
       <c r="AB2" t="n">
-        <v>2360.122756753047</v>
+        <v>2540.791057704334</v>
       </c>
       <c r="AC2" t="n">
-        <v>2134.875953301629</v>
+        <v>2298.301525179679</v>
       </c>
       <c r="AD2" t="n">
-        <v>1724928.123297038</v>
+        <v>1856972.031779116</v>
       </c>
       <c r="AE2" t="n">
-        <v>2360122.756753047</v>
+        <v>2540791.057704334</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.046933580435833e-06</v>
+        <v>1.619735474997957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.50911458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2134875.953301629</v>
+        <v>2298301.525179679</v>
       </c>
     </row>
     <row r="3">
@@ -13021,28 +13021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1270.820137706859</v>
+        <v>1379.476928640197</v>
       </c>
       <c r="AB3" t="n">
-        <v>1738.792177038158</v>
+        <v>1887.461191992451</v>
       </c>
       <c r="AC3" t="n">
-        <v>1572.844292071784</v>
+        <v>1707.324544897112</v>
       </c>
       <c r="AD3" t="n">
-        <v>1270820.137706859</v>
+        <v>1379476.928640197</v>
       </c>
       <c r="AE3" t="n">
-        <v>1738792.177038158</v>
+        <v>1887461.191992451</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.248258670847006e-06</v>
+        <v>1.931210240006829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.10546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1572844.292071784</v>
+        <v>1707324.544897112</v>
       </c>
     </row>
     <row r="4">
@@ -13127,28 +13127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1131.842695780968</v>
+        <v>1240.499397205754</v>
       </c>
       <c r="AB4" t="n">
-        <v>1548.637109743138</v>
+        <v>1697.306002227882</v>
       </c>
       <c r="AC4" t="n">
-        <v>1400.837357515087</v>
+        <v>1535.317499559188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1131842.695780968</v>
+        <v>1240499.397205754</v>
       </c>
       <c r="AE4" t="n">
-        <v>1548637.109743138</v>
+        <v>1697306.002227882</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319390662105771e-06</v>
+        <v>2.041260210513176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.591796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1400837.357515086</v>
+        <v>1535317.499559188</v>
       </c>
     </row>
     <row r="5">
@@ -13233,28 +13233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1055.164527294168</v>
+        <v>1163.735887864382</v>
       </c>
       <c r="AB5" t="n">
-        <v>1443.72265681745</v>
+        <v>1592.274782179997</v>
       </c>
       <c r="AC5" t="n">
-        <v>1305.935792728267</v>
+        <v>1440.31031174043</v>
       </c>
       <c r="AD5" t="n">
-        <v>1055164.527294168</v>
+        <v>1163735.887864382</v>
       </c>
       <c r="AE5" t="n">
-        <v>1443722.65681745</v>
+        <v>1592274.782179997</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.354741106246491e-06</v>
+        <v>2.095951711007239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.89518229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1305935.792728267</v>
+        <v>1440310.31174043</v>
       </c>
     </row>
     <row r="6">
@@ -13339,28 +13339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1005.148246589149</v>
+        <v>1106.123000134267</v>
       </c>
       <c r="AB6" t="n">
-        <v>1375.288174994271</v>
+        <v>1513.446287486432</v>
       </c>
       <c r="AC6" t="n">
-        <v>1244.032601801894</v>
+        <v>1369.005097943931</v>
       </c>
       <c r="AD6" t="n">
-        <v>1005148.246589149</v>
+        <v>1106123.000134267</v>
       </c>
       <c r="AE6" t="n">
-        <v>1375288.174994271</v>
+        <v>1513446.287486432</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.375434049158132e-06</v>
+        <v>2.127966247881813e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.5078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1244032.601801894</v>
+        <v>1369005.097943931</v>
       </c>
     </row>
     <row r="7">
@@ -13445,28 +13445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1003.927369469553</v>
+        <v>1104.731530814079</v>
       </c>
       <c r="AB7" t="n">
-        <v>1373.617717057942</v>
+        <v>1511.542417775255</v>
       </c>
       <c r="AC7" t="n">
-        <v>1242.521570026505</v>
+        <v>1367.282930885892</v>
       </c>
       <c r="AD7" t="n">
-        <v>1003927.369469553</v>
+        <v>1104731.530814079</v>
       </c>
       <c r="AE7" t="n">
-        <v>1373617.717057942</v>
+        <v>1511542.417775255</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377589564044761e-06</v>
+        <v>2.131301095472914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1242521.570026505</v>
+        <v>1367282.930885892</v>
       </c>
     </row>
     <row r="8">
@@ -13551,28 +13551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1010.59583675246</v>
+        <v>1111.399998096986</v>
       </c>
       <c r="AB8" t="n">
-        <v>1382.741808186429</v>
+        <v>1520.666508903742</v>
       </c>
       <c r="AC8" t="n">
-        <v>1250.774870703432</v>
+        <v>1375.536231562818</v>
       </c>
       <c r="AD8" t="n">
-        <v>1010595.83675246</v>
+        <v>1111399.998096986</v>
       </c>
       <c r="AE8" t="n">
-        <v>1382741.808186429</v>
+        <v>1520666.508903742</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37748178830043e-06</v>
+        <v>2.131134353093359e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1250774.870703432</v>
+        <v>1375536.231562818</v>
       </c>
     </row>
   </sheetData>
@@ -13848,28 +13848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2410.785535360742</v>
+        <v>2571.044163886491</v>
       </c>
       <c r="AB2" t="n">
-        <v>3298.543125832322</v>
+        <v>3517.816051492971</v>
       </c>
       <c r="AC2" t="n">
-        <v>2983.734799437114</v>
+        <v>3182.080624824187</v>
       </c>
       <c r="AD2" t="n">
-        <v>2410785.535360742</v>
+        <v>2571044.163886491</v>
       </c>
       <c r="AE2" t="n">
-        <v>3298543.125832323</v>
+        <v>3517816.051492971</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.921730563757235e-07</v>
+        <v>1.348335758904802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.62044270833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2983734.799437115</v>
+        <v>3182080.624824187</v>
       </c>
     </row>
     <row r="3">
@@ -13954,28 +13954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1618.572553047982</v>
+        <v>1738.894535724151</v>
       </c>
       <c r="AB3" t="n">
-        <v>2214.60237346168</v>
+        <v>2379.232218390453</v>
       </c>
       <c r="AC3" t="n">
-        <v>2003.243831152449</v>
+        <v>2152.161634740659</v>
       </c>
       <c r="AD3" t="n">
-        <v>1618572.553047982</v>
+        <v>1738894.53572415</v>
       </c>
       <c r="AE3" t="n">
-        <v>2214602.37346168</v>
+        <v>2379232.218390454</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.131171917427258e-06</v>
+        <v>1.709533296075879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.67122395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2003243.831152449</v>
+        <v>2152161.634740659</v>
       </c>
     </row>
     <row r="4">
@@ -14060,28 +14060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1426.711041599832</v>
+        <v>1539.011558764257</v>
       </c>
       <c r="AB4" t="n">
-        <v>1952.088989165819</v>
+        <v>2105.743511099342</v>
       </c>
       <c r="AC4" t="n">
-        <v>1765.784355813937</v>
+        <v>1904.7743058296</v>
       </c>
       <c r="AD4" t="n">
-        <v>1426711.041599832</v>
+        <v>1539011.558764257</v>
       </c>
       <c r="AE4" t="n">
-        <v>1952088.989165819</v>
+        <v>2105743.511099342</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.215306115278014e-06</v>
+        <v>1.836684801827216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1765784.355813937</v>
+        <v>1904774.3058296</v>
       </c>
     </row>
     <row r="5">
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1330.647219616234</v>
+        <v>1442.862395926087</v>
       </c>
       <c r="AB5" t="n">
-        <v>1820.65022989114</v>
+        <v>1974.187984702465</v>
       </c>
       <c r="AC5" t="n">
-        <v>1646.889927248976</v>
+        <v>1785.7742542327</v>
       </c>
       <c r="AD5" t="n">
-        <v>1330647.219616235</v>
+        <v>1442862.395926087</v>
       </c>
       <c r="AE5" t="n">
-        <v>1820650.22989114</v>
+        <v>1974187.984702465</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258404270549602e-06</v>
+        <v>1.901818783940033e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.669921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1646889.927248976</v>
+        <v>1785774.2542327</v>
       </c>
     </row>
     <row r="6">
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1272.1744270419</v>
+        <v>1376.368227348559</v>
       </c>
       <c r="AB6" t="n">
-        <v>1740.645175453389</v>
+        <v>1883.20772973901</v>
       </c>
       <c r="AC6" t="n">
-        <v>1574.520442918964</v>
+        <v>1703.477027111368</v>
       </c>
       <c r="AD6" t="n">
-        <v>1272174.4270419</v>
+        <v>1376368.227348559</v>
       </c>
       <c r="AE6" t="n">
-        <v>1740645.175453389</v>
+        <v>1883207.72973901</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.285624158089552e-06</v>
+        <v>1.94295603580076e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.10677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1574520.442918964</v>
+        <v>1703477.027111368</v>
       </c>
     </row>
     <row r="7">
@@ -14378,28 +14378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1220.010189613071</v>
+        <v>1332.140025068352</v>
       </c>
       <c r="AB7" t="n">
-        <v>1669.27176447953</v>
+        <v>1822.692752168656</v>
       </c>
       <c r="AC7" t="n">
-        <v>1509.958810115239</v>
+        <v>1648.737514067024</v>
       </c>
       <c r="AD7" t="n">
-        <v>1220010.189613071</v>
+        <v>1332140.025068352</v>
       </c>
       <c r="AE7" t="n">
-        <v>1669271.76447953</v>
+        <v>1822692.752168656</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.302842799071264e-06</v>
+        <v>1.968978464061144e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.76171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1509958.810115239</v>
+        <v>1648737.514067024</v>
       </c>
     </row>
     <row r="8">
@@ -14484,28 +14484,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1182.290641915887</v>
+        <v>1286.569693568567</v>
       </c>
       <c r="AB8" t="n">
-        <v>1617.662215251242</v>
+        <v>1760.341414189513</v>
       </c>
       <c r="AC8" t="n">
-        <v>1463.274803830842</v>
+        <v>1592.336900273957</v>
       </c>
       <c r="AD8" t="n">
-        <v>1182290.641915887</v>
+        <v>1286569.693568567</v>
       </c>
       <c r="AE8" t="n">
-        <v>1617662.215251242</v>
+        <v>1760341.414189513</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.315112369591165e-06</v>
+        <v>1.987521391983214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1463274.803830842</v>
+        <v>1592336.900273957</v>
       </c>
     </row>
     <row r="9">
@@ -14590,28 +14590,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1148.351926537157</v>
+        <v>1252.460385989245</v>
       </c>
       <c r="AB9" t="n">
-        <v>1571.225767599614</v>
+        <v>1713.671554763037</v>
       </c>
       <c r="AC9" t="n">
-        <v>1421.270185569121</v>
+        <v>1550.121146729585</v>
       </c>
       <c r="AD9" t="n">
-        <v>1148351.926537158</v>
+        <v>1252460.385989245</v>
       </c>
       <c r="AE9" t="n">
-        <v>1571225.767599614</v>
+        <v>1713671.554763037</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.325938461226373e-06</v>
+        <v>2.003882798973275e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1421270.185569121</v>
+        <v>1550121.146729585</v>
       </c>
     </row>
     <row r="10">
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1135.387235147417</v>
+        <v>1239.495694599504</v>
       </c>
       <c r="AB10" t="n">
-        <v>1553.486904878354</v>
+        <v>1695.932692041777</v>
       </c>
       <c r="AC10" t="n">
-        <v>1405.224295009328</v>
+        <v>1534.075256169792</v>
       </c>
       <c r="AD10" t="n">
-        <v>1135387.235147417</v>
+        <v>1239495.694599504</v>
       </c>
       <c r="AE10" t="n">
-        <v>1553486.904878354</v>
+        <v>1695932.692041777</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.328619207726519e-06</v>
+        <v>2.007934194989862e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1405224.295009328</v>
+        <v>1534075.256169792</v>
       </c>
     </row>
     <row r="11">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1138.343676494661</v>
+        <v>1242.452135946748</v>
       </c>
       <c r="AB11" t="n">
-        <v>1557.53203835864</v>
+        <v>1699.977825522064</v>
       </c>
       <c r="AC11" t="n">
-        <v>1408.883366627636</v>
+        <v>1537.7343277881</v>
       </c>
       <c r="AD11" t="n">
-        <v>1138343.676494661</v>
+        <v>1242452.135946748</v>
       </c>
       <c r="AE11" t="n">
-        <v>1557532.03835864</v>
+        <v>1699977.825522064</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.330268897880456e-06</v>
+        <v>2.0104273617693e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.23111979166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1408883.366627636</v>
+        <v>1537734.327788101</v>
       </c>
     </row>
     <row r="12">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1144.449113656088</v>
+        <v>1248.557573108175</v>
       </c>
       <c r="AB12" t="n">
-        <v>1565.885766835782</v>
+        <v>1708.331553999205</v>
       </c>
       <c r="AC12" t="n">
-        <v>1416.439826983451</v>
+        <v>1545.290788143915</v>
       </c>
       <c r="AD12" t="n">
-        <v>1144449.113656088</v>
+        <v>1248557.573108175</v>
       </c>
       <c r="AE12" t="n">
-        <v>1565885.766835782</v>
+        <v>1708331.553999205</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.330268897880456e-06</v>
+        <v>2.0104273617693e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.23111979166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1416439.826983451</v>
+        <v>1545290.788143915</v>
       </c>
     </row>
   </sheetData>
@@ -15205,28 +15205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1303.805542967288</v>
+        <v>1424.661188306975</v>
       </c>
       <c r="AB2" t="n">
-        <v>1783.924263728853</v>
+        <v>1949.284289457387</v>
       </c>
       <c r="AC2" t="n">
-        <v>1613.669035752</v>
+        <v>1763.247332709257</v>
       </c>
       <c r="AD2" t="n">
-        <v>1303805.542967288</v>
+        <v>1424661.188306975</v>
       </c>
       <c r="AE2" t="n">
-        <v>1783924.263728853</v>
+        <v>1949284.289457387</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.177995299861581e-06</v>
+        <v>1.861807424111178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.93098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1613669.035752</v>
+        <v>1763247.332709257</v>
       </c>
     </row>
     <row r="3">
@@ -15311,28 +15311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1015.157556651276</v>
+        <v>1113.422197442663</v>
       </c>
       <c r="AB3" t="n">
-        <v>1388.983354600868</v>
+        <v>1523.433371261636</v>
       </c>
       <c r="AC3" t="n">
-        <v>1256.420732688142</v>
+        <v>1378.03902846059</v>
       </c>
       <c r="AD3" t="n">
-        <v>1015157.556651276</v>
+        <v>1113422.197442662</v>
       </c>
       <c r="AE3" t="n">
-        <v>1388983.354600868</v>
+        <v>1523433.371261636</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.349366527920122e-06</v>
+        <v>2.132657591947953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.001953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1256420.732688142</v>
+        <v>1378039.02846059</v>
       </c>
     </row>
     <row r="4">
@@ -15417,28 +15417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>904.5620081416051</v>
+        <v>1010.214689352438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1237.661645998687</v>
+        <v>1382.220305498682</v>
       </c>
       <c r="AC4" t="n">
-        <v>1119.540955573602</v>
+        <v>1250.30313950027</v>
       </c>
       <c r="AD4" t="n">
-        <v>904562.0081416052</v>
+        <v>1010214.689352438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1237661.645998687</v>
+        <v>1382220.305498682</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.406229090855287e-06</v>
+        <v>2.222528189767079e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1119540.955573602</v>
+        <v>1250303.13950027</v>
       </c>
     </row>
     <row r="5">
@@ -15523,28 +15523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>900.3300009341335</v>
+        <v>1005.982682144966</v>
       </c>
       <c r="AB5" t="n">
-        <v>1231.871227034444</v>
+        <v>1376.429886534439</v>
       </c>
       <c r="AC5" t="n">
-        <v>1114.303166068402</v>
+        <v>1245.06534999507</v>
       </c>
       <c r="AD5" t="n">
-        <v>900330.0009341335</v>
+        <v>1005982.682144966</v>
       </c>
       <c r="AE5" t="n">
-        <v>1231871.227034444</v>
+        <v>1376429.886534438</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.41148999726858e-06</v>
+        <v>2.230842989171604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.81380208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1114303.166068402</v>
+        <v>1245065.34999507</v>
       </c>
     </row>
     <row r="6">
@@ -15629,28 +15629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>907.4923779170085</v>
+        <v>1013.145059127841</v>
       </c>
       <c r="AB6" t="n">
-        <v>1241.671107204185</v>
+        <v>1386.229766704179</v>
       </c>
       <c r="AC6" t="n">
-        <v>1123.167759428961</v>
+        <v>1253.929943355629</v>
       </c>
       <c r="AD6" t="n">
-        <v>907492.3779170085</v>
+        <v>1013145.059127841</v>
       </c>
       <c r="AE6" t="n">
-        <v>1241671.107204185</v>
+        <v>1386229.766704179</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.41148999726858e-06</v>
+        <v>2.230842989171604e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.81380208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1123167.759428961</v>
+        <v>1253929.943355629</v>
       </c>
     </row>
   </sheetData>
@@ -15926,28 +15926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4656.643622896765</v>
+        <v>4876.801690151071</v>
       </c>
       <c r="AB2" t="n">
-        <v>6371.425241465371</v>
+        <v>6672.65522177117</v>
       </c>
       <c r="AC2" t="n">
-        <v>5763.345358771165</v>
+        <v>6035.826372535499</v>
       </c>
       <c r="AD2" t="n">
-        <v>4656643.622896765</v>
+        <v>4876801.690151071</v>
       </c>
       <c r="AE2" t="n">
-        <v>6371425.241465371</v>
+        <v>6672655.221771169</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.277201633901482e-07</v>
+        <v>9.151446194778889e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.638671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>5763345.358771165</v>
+        <v>6035826.372535499</v>
       </c>
     </row>
     <row r="3">
@@ -16032,28 +16032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2483.51926964054</v>
+        <v>2635.883875675323</v>
       </c>
       <c r="AB3" t="n">
-        <v>3398.060629859838</v>
+        <v>3606.532605688653</v>
       </c>
       <c r="AC3" t="n">
-        <v>3073.754492553934</v>
+        <v>3262.330195601895</v>
       </c>
       <c r="AD3" t="n">
-        <v>2483519.26964054</v>
+        <v>2635883.875675322</v>
       </c>
       <c r="AE3" t="n">
-        <v>3398060.629859838</v>
+        <v>3606532.605688653</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.235852175284446e-07</v>
+        <v>1.346482225273277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.73697916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3073754.492553934</v>
+        <v>3262330.195601895</v>
       </c>
     </row>
     <row r="4">
@@ -16138,28 +16138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2081.114389309564</v>
+        <v>2208.141877750151</v>
       </c>
       <c r="AB4" t="n">
-        <v>2847.472519740415</v>
+        <v>3021.277133482275</v>
       </c>
       <c r="AC4" t="n">
-        <v>2575.713738909171</v>
+        <v>2732.930684251701</v>
       </c>
       <c r="AD4" t="n">
-        <v>2081114.389309564</v>
+        <v>2208141.877750151</v>
       </c>
       <c r="AE4" t="n">
-        <v>2847472.519740415</v>
+        <v>3021277.133482275</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03385262042955e-06</v>
+        <v>1.507239560076346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.13671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2575713.738909171</v>
+        <v>2732930.684251701</v>
       </c>
     </row>
     <row r="5">
@@ -16244,28 +16244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1899.244335561668</v>
+        <v>2026.271734493701</v>
       </c>
       <c r="AB5" t="n">
-        <v>2598.629888662045</v>
+        <v>2772.43437993418</v>
       </c>
       <c r="AC5" t="n">
-        <v>2350.620299288095</v>
+        <v>2507.837133849352</v>
       </c>
       <c r="AD5" t="n">
-        <v>1899244.335561668</v>
+        <v>2026271.734493701</v>
       </c>
       <c r="AE5" t="n">
-        <v>2598629.888662045</v>
+        <v>2772434.37993418</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.092815051147503e-06</v>
+        <v>1.593200079380765e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.51236979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2350620.299288095</v>
+        <v>2507837.133849352</v>
       </c>
     </row>
     <row r="6">
@@ -16350,28 +16350,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1793.690613453706</v>
+        <v>1912.32917058787</v>
       </c>
       <c r="AB6" t="n">
-        <v>2454.206629372366</v>
+        <v>2616.533137207076</v>
       </c>
       <c r="AC6" t="n">
-        <v>2219.980593165705</v>
+        <v>2366.814886919355</v>
       </c>
       <c r="AD6" t="n">
-        <v>1793690.613453706</v>
+        <v>1912329.17058787</v>
       </c>
       <c r="AE6" t="n">
-        <v>2454206.629372366</v>
+        <v>2616533.137207076</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.130145161504648e-06</v>
+        <v>1.647623135433888e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.57161458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2219980.593165705</v>
+        <v>2366814.886919355</v>
       </c>
     </row>
     <row r="7">
@@ -16456,28 +16456,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1724.141997309867</v>
+        <v>1842.69521358946</v>
       </c>
       <c r="AB7" t="n">
-        <v>2359.047144495969</v>
+        <v>2521.256885208481</v>
       </c>
       <c r="AC7" t="n">
-        <v>2133.902995968735</v>
+        <v>2280.631666690446</v>
       </c>
       <c r="AD7" t="n">
-        <v>1724141.997309867</v>
+        <v>1842695.21358946</v>
       </c>
       <c r="AE7" t="n">
-        <v>2359047.144495969</v>
+        <v>2521256.885208481</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.154266155889265e-06</v>
+        <v>1.682788802422059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.99544270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2133902.995968735</v>
+        <v>2280631.666690446</v>
       </c>
     </row>
     <row r="8">
@@ -16562,28 +16562,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1679.114122796758</v>
+        <v>1797.667339076351</v>
       </c>
       <c r="AB8" t="n">
-        <v>2297.43802009751</v>
+        <v>2459.647760810022</v>
       </c>
       <c r="AC8" t="n">
-        <v>2078.173759933915</v>
+        <v>2224.902430655627</v>
       </c>
       <c r="AD8" t="n">
-        <v>1679114.122796758</v>
+        <v>1797667.339076351</v>
       </c>
       <c r="AE8" t="n">
-        <v>2297438.020097509</v>
+        <v>2459647.760810022</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.171495437592562e-06</v>
+        <v>1.707907135985038e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.59505208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2078173.759933915</v>
+        <v>2224902.430655627</v>
       </c>
     </row>
     <row r="9">
@@ -16668,28 +16668,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1643.763524714255</v>
+        <v>1753.842647849959</v>
       </c>
       <c r="AB9" t="n">
-        <v>2249.069772242709</v>
+        <v>2399.684884865148</v>
       </c>
       <c r="AC9" t="n">
-        <v>2034.421709769116</v>
+        <v>2170.662327432507</v>
       </c>
       <c r="AD9" t="n">
-        <v>1643763.524714255</v>
+        <v>1753842.647849959</v>
       </c>
       <c r="AE9" t="n">
-        <v>2249069.77224271</v>
+        <v>2399684.884865148</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.184704553565091e-06</v>
+        <v>1.727164525049989e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.298828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2034421.709769116</v>
+        <v>2170662.327432507</v>
       </c>
     </row>
     <row r="10">
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1613.407528264484</v>
+        <v>1723.486651400187</v>
       </c>
       <c r="AB10" t="n">
-        <v>2207.535358688085</v>
+        <v>2358.150471310524</v>
       </c>
       <c r="AC10" t="n">
-        <v>1996.851282350229</v>
+        <v>2133.09190001362</v>
       </c>
       <c r="AD10" t="n">
-        <v>1613407.528264483</v>
+        <v>1723486.651400187</v>
       </c>
       <c r="AE10" t="n">
-        <v>2207535.358688085</v>
+        <v>2358150.471310524</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.195616431977179e-06</v>
+        <v>1.74307280297321e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.06119791666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1996851.282350229</v>
+        <v>2133091.90001362</v>
       </c>
     </row>
     <row r="11">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1578.921278924265</v>
+        <v>1697.389154349287</v>
       </c>
       <c r="AB11" t="n">
-        <v>2160.349750914855</v>
+        <v>2322.44272450517</v>
       </c>
       <c r="AC11" t="n">
-        <v>1954.169002757459</v>
+        <v>2100.792050447232</v>
       </c>
       <c r="AD11" t="n">
-        <v>1578921.278924265</v>
+        <v>1697389.154349287</v>
       </c>
       <c r="AE11" t="n">
-        <v>2160349.750914855</v>
+        <v>2322442.72450517</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.203656763438718e-06</v>
+        <v>1.754794691969267e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1954169.002757459</v>
+        <v>2100792.050447232</v>
       </c>
     </row>
     <row r="12">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1554.091033177094</v>
+        <v>1664.255407658818</v>
       </c>
       <c r="AB12" t="n">
-        <v>2126.375913250445</v>
+        <v>2277.107670525533</v>
       </c>
       <c r="AC12" t="n">
-        <v>1923.43758047716</v>
+        <v>2059.783710391263</v>
       </c>
       <c r="AD12" t="n">
-        <v>1554091.033177094</v>
+        <v>1664255.407658818</v>
       </c>
       <c r="AE12" t="n">
-        <v>2126375.913250445</v>
+        <v>2277107.670525533</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.211218503741832e-06</v>
+        <v>1.765818849477464e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.72591145833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1923437.58047716</v>
+        <v>2059783.710391263</v>
       </c>
     </row>
     <row r="13">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1534.786551410385</v>
+        <v>1644.950925892109</v>
       </c>
       <c r="AB13" t="n">
-        <v>2099.962669643605</v>
+        <v>2250.694426918692</v>
       </c>
       <c r="AC13" t="n">
-        <v>1899.545179768936</v>
+        <v>2035.891309683039</v>
       </c>
       <c r="AD13" t="n">
-        <v>1534786.551410385</v>
+        <v>1644950.925892109</v>
       </c>
       <c r="AE13" t="n">
-        <v>2099962.669643605</v>
+        <v>2250694.426918692</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.216770161179561e-06</v>
+        <v>1.773912534736646e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.60546875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1899545.179768936</v>
+        <v>2035891.30968304</v>
       </c>
     </row>
     <row r="14">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1513.141131592154</v>
+        <v>1623.134913873286</v>
       </c>
       <c r="AB14" t="n">
-        <v>2070.346451319775</v>
+        <v>2220.844796820016</v>
       </c>
       <c r="AC14" t="n">
-        <v>1872.755491755309</v>
+        <v>2008.890486386761</v>
       </c>
       <c r="AD14" t="n">
-        <v>1513141.131592154</v>
+        <v>1623134.913873286</v>
       </c>
       <c r="AE14" t="n">
-        <v>2070346.451319775</v>
+        <v>2220844.796820016</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.222704691544031e-06</v>
+        <v>1.782564405186117e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.48502604166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1872755.491755309</v>
+        <v>2008890.486386762</v>
       </c>
     </row>
     <row r="15">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1493.064726190746</v>
+        <v>1603.058508471878</v>
       </c>
       <c r="AB15" t="n">
-        <v>2042.877027741072</v>
+        <v>2193.375373241313</v>
       </c>
       <c r="AC15" t="n">
-        <v>1847.90771140938</v>
+        <v>1984.042706040832</v>
       </c>
       <c r="AD15" t="n">
-        <v>1493064.726190746</v>
+        <v>1603058.508471878</v>
       </c>
       <c r="AE15" t="n">
-        <v>2042877.027741072</v>
+        <v>2193375.373241313</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22729916666491e-06</v>
+        <v>1.789262627469578e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.38736979166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1847907.71140938</v>
+        <v>1984042.706040832</v>
       </c>
     </row>
     <row r="16">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1475.258790268561</v>
+        <v>1585.252572549693</v>
       </c>
       <c r="AB16" t="n">
-        <v>2018.514160669886</v>
+        <v>2169.012506170126</v>
       </c>
       <c r="AC16" t="n">
-        <v>1825.870002177969</v>
+        <v>1962.004996809421</v>
       </c>
       <c r="AD16" t="n">
-        <v>1475258.790268561</v>
+        <v>1585252.572549693</v>
       </c>
       <c r="AE16" t="n">
-        <v>2018514.160669886</v>
+        <v>2169012.506170127</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.2305535865422e-06</v>
+        <v>1.79400720158703e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.31901041666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1825870.002177969</v>
+        <v>1962004.996809421</v>
       </c>
     </row>
     <row r="17">
@@ -17516,28 +17516,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1459.086254065218</v>
+        <v>1569.080036346351</v>
       </c>
       <c r="AB17" t="n">
-        <v>1996.386183154531</v>
+        <v>2146.884528654771</v>
       </c>
       <c r="AC17" t="n">
-        <v>1805.853887779868</v>
+        <v>1941.98888241132</v>
       </c>
       <c r="AD17" t="n">
-        <v>1459086.254065218</v>
+        <v>1569080.036346351</v>
       </c>
       <c r="AE17" t="n">
-        <v>1996386.183154531</v>
+        <v>2146884.528654771</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.233808006419489e-06</v>
+        <v>1.798751775704481e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.25390625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1805853.887779868</v>
+        <v>1941988.88241132</v>
       </c>
     </row>
     <row r="18">
@@ -17622,28 +17622,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1440.377739904306</v>
+        <v>1550.371522185438</v>
       </c>
       <c r="AB18" t="n">
-        <v>1970.788368718176</v>
+        <v>2121.286714218417</v>
       </c>
       <c r="AC18" t="n">
-        <v>1782.699092826561</v>
+        <v>1918.834087458013</v>
       </c>
       <c r="AD18" t="n">
-        <v>1440377.739904306</v>
+        <v>1550371.522185438</v>
       </c>
       <c r="AE18" t="n">
-        <v>1970788.368718176</v>
+        <v>2121286.714218417</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.237541017455204e-06</v>
+        <v>1.804194081309793e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.17578125</v>
       </c>
       <c r="AH18" t="n">
-        <v>1782699.092826561</v>
+        <v>1918834.087458013</v>
       </c>
     </row>
     <row r="19">
@@ -17728,28 +17728,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1426.583882024282</v>
+        <v>1536.577664305414</v>
       </c>
       <c r="AB19" t="n">
-        <v>1951.915003824666</v>
+        <v>2102.413349324907</v>
       </c>
       <c r="AC19" t="n">
-        <v>1765.626975389554</v>
+        <v>1901.761970021006</v>
       </c>
       <c r="AD19" t="n">
-        <v>1426583.882024282</v>
+        <v>1536577.664305414</v>
       </c>
       <c r="AE19" t="n">
-        <v>1951915.003824666</v>
+        <v>2102413.349324907</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.239072509162163e-06</v>
+        <v>1.806426822070947e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.146484375</v>
       </c>
       <c r="AH19" t="n">
-        <v>1765626.975389553</v>
+        <v>1901761.970021006</v>
       </c>
     </row>
     <row r="20">
@@ -17834,28 +17834,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1411.927814966714</v>
+        <v>1521.921597247846</v>
       </c>
       <c r="AB20" t="n">
-        <v>1931.861926296456</v>
+        <v>2082.360271796697</v>
       </c>
       <c r="AC20" t="n">
-        <v>1747.487735435965</v>
+        <v>1883.622730067417</v>
       </c>
       <c r="AD20" t="n">
-        <v>1411927.814966714</v>
+        <v>1521921.597247846</v>
       </c>
       <c r="AE20" t="n">
-        <v>1931861.926296456</v>
+        <v>2082360.271796697</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.241944056112713e-06</v>
+        <v>1.810613210998111e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.087890625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1747487.735435965</v>
+        <v>1883622.730067417</v>
       </c>
     </row>
     <row r="21">
@@ -17940,28 +17940,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1409.504212099562</v>
+        <v>1511.194493437397</v>
       </c>
       <c r="AB21" t="n">
-        <v>1928.545845931807</v>
+        <v>2067.682975116821</v>
       </c>
       <c r="AC21" t="n">
-        <v>1744.488137127169</v>
+        <v>1870.346213982953</v>
       </c>
       <c r="AD21" t="n">
-        <v>1409504.212099561</v>
+        <v>1511194.493437397</v>
       </c>
       <c r="AE21" t="n">
-        <v>1928545.845931807</v>
+        <v>2067682.975116821</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.242614083734508e-06</v>
+        <v>1.811590035081115e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.07486979166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1744488.137127169</v>
+        <v>1870346.213982953</v>
       </c>
     </row>
     <row r="22">
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1412.0612870694</v>
+        <v>1513.751568407235</v>
       </c>
       <c r="AB22" t="n">
-        <v>1932.044548715726</v>
+        <v>2071.18167790074</v>
       </c>
       <c r="AC22" t="n">
-        <v>1747.652928627851</v>
+        <v>1873.511005483635</v>
       </c>
       <c r="AD22" t="n">
-        <v>1412061.2870694</v>
+        <v>1513751.568407235</v>
       </c>
       <c r="AE22" t="n">
-        <v>1932044.548715726</v>
+        <v>2071181.67790074</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.242614083734508e-06</v>
+        <v>1.811590035081115e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.07486979166667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1747652.928627851</v>
+        <v>1873511.005483635</v>
       </c>
     </row>
     <row r="23">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1418.314591577558</v>
+        <v>1520.004872915393</v>
       </c>
       <c r="AB23" t="n">
-        <v>1940.600595820112</v>
+        <v>2079.737725005126</v>
       </c>
       <c r="AC23" t="n">
-        <v>1755.392398605082</v>
+        <v>1881.250475460866</v>
       </c>
       <c r="AD23" t="n">
-        <v>1418314.591577558</v>
+        <v>1520004.872915393</v>
       </c>
       <c r="AE23" t="n">
-        <v>1940600.595820112</v>
+        <v>2079737.725005126</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.242422647271138e-06</v>
+        <v>1.811310942485971e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH23" t="n">
-        <v>1755392.398605082</v>
+        <v>1881250.475460866</v>
       </c>
     </row>
   </sheetData>
@@ -18449,28 +18449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1094.705052743132</v>
+        <v>1206.235482458789</v>
       </c>
       <c r="AB2" t="n">
-        <v>1497.823748141592</v>
+        <v>1650.42460245385</v>
       </c>
       <c r="AC2" t="n">
-        <v>1354.873551827792</v>
+        <v>1492.910394781132</v>
       </c>
       <c r="AD2" t="n">
-        <v>1094705.052743132</v>
+        <v>1206235.482458789</v>
       </c>
       <c r="AE2" t="n">
-        <v>1497823.748141592</v>
+        <v>1650424.60245385</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.259836323781887e-06</v>
+        <v>2.018553723325664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.599609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1354873.551827792</v>
+        <v>1492910.394781132</v>
       </c>
     </row>
     <row r="3">
@@ -18555,28 +18555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>864.7729525936888</v>
+        <v>968.6120872731382</v>
       </c>
       <c r="AB3" t="n">
-        <v>1183.220504828786</v>
+        <v>1325.297789956515</v>
       </c>
       <c r="AC3" t="n">
-        <v>1070.295600508334</v>
+        <v>1198.813228950195</v>
       </c>
       <c r="AD3" t="n">
-        <v>864772.9525936889</v>
+        <v>968612.0872731382</v>
       </c>
       <c r="AE3" t="n">
-        <v>1183220.504828786</v>
+        <v>1325297.789956515</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.411502380581961e-06</v>
+        <v>2.261558372323952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.41927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1070295.600508334</v>
+        <v>1198813.228950195</v>
       </c>
     </row>
     <row r="4">
@@ -18661,28 +18661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>846.398989429825</v>
+        <v>942.9734438373737</v>
       </c>
       <c r="AB4" t="n">
-        <v>1158.080437825942</v>
+        <v>1290.217866910582</v>
       </c>
       <c r="AC4" t="n">
-        <v>1047.554866215936</v>
+        <v>1167.081284524785</v>
       </c>
       <c r="AD4" t="n">
-        <v>846398.989429825</v>
+        <v>942973.4438373736</v>
       </c>
       <c r="AE4" t="n">
-        <v>1158080.437825941</v>
+        <v>1290217.866910582</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42708137131067e-06</v>
+        <v>2.286519574940091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.12955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1047554.866215936</v>
+        <v>1167081.284524785</v>
       </c>
     </row>
   </sheetData>
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3233.056596889446</v>
+        <v>3413.931345917686</v>
       </c>
       <c r="AB2" t="n">
-        <v>4423.610668254957</v>
+        <v>4671.091479506163</v>
       </c>
       <c r="AC2" t="n">
-        <v>4001.427474653104</v>
+        <v>4225.289064619986</v>
       </c>
       <c r="AD2" t="n">
-        <v>3233056.596889446</v>
+        <v>3413931.345917686</v>
       </c>
       <c r="AE2" t="n">
-        <v>4423610.668254958</v>
+        <v>4671091.479506163</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.667504421653052e-07</v>
+        <v>1.138504177945168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.24934895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4001427.474653104</v>
+        <v>4225289.064619985</v>
       </c>
     </row>
     <row r="3">
@@ -19064,28 +19064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1977.066520883102</v>
+        <v>2108.627333834077</v>
       </c>
       <c r="AB3" t="n">
-        <v>2705.10963589134</v>
+        <v>2885.116944224301</v>
       </c>
       <c r="AC3" t="n">
-        <v>2446.937768887089</v>
+        <v>2609.765432354597</v>
       </c>
       <c r="AD3" t="n">
-        <v>1977066.520883102</v>
+        <v>2108627.333834077</v>
       </c>
       <c r="AE3" t="n">
-        <v>2705109.63589134</v>
+        <v>2885116.944224301</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034043328298466e-06</v>
+        <v>1.535392201561096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2446937.768887089</v>
+        <v>2609765.432354596</v>
       </c>
     </row>
     <row r="4">
@@ -19170,28 +19170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1700.375766891639</v>
+        <v>1823.788618366661</v>
       </c>
       <c r="AB4" t="n">
-        <v>2326.529139545663</v>
+        <v>2495.388047524535</v>
       </c>
       <c r="AC4" t="n">
-        <v>2104.48846377158</v>
+        <v>2257.231714567914</v>
       </c>
       <c r="AD4" t="n">
-        <v>1700375.766891639</v>
+        <v>1823788.618366661</v>
       </c>
       <c r="AE4" t="n">
-        <v>2326529.139545663</v>
+        <v>2495388.047524535</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.13126788144519e-06</v>
+        <v>1.679755417894961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.6328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2104488.46377158</v>
+        <v>2257231.714567914</v>
       </c>
     </row>
     <row r="5">
@@ -19276,28 +19276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1578.207569027845</v>
+        <v>1693.301956334873</v>
       </c>
       <c r="AB5" t="n">
-        <v>2159.373221547914</v>
+        <v>2316.850439867399</v>
       </c>
       <c r="AC5" t="n">
-        <v>1953.285671982732</v>
+        <v>2095.733485606469</v>
       </c>
       <c r="AD5" t="n">
-        <v>1578207.569027845</v>
+        <v>1693301.956334873</v>
       </c>
       <c r="AE5" t="n">
-        <v>2159373.221547914</v>
+        <v>2316850.439867399</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.181024561663575e-06</v>
+        <v>1.753636286028976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.42838541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1953285.671982732</v>
+        <v>2095733.485606469</v>
       </c>
     </row>
     <row r="6">
@@ -19382,28 +19382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1501.064486196153</v>
+        <v>1616.244124849202</v>
       </c>
       <c r="AB6" t="n">
-        <v>2053.822652304973</v>
+        <v>2211.416515277106</v>
       </c>
       <c r="AC6" t="n">
-        <v>1857.808700927182</v>
+        <v>2000.362026801631</v>
       </c>
       <c r="AD6" t="n">
-        <v>1501064.486196153</v>
+        <v>1616244.124849202</v>
       </c>
       <c r="AE6" t="n">
-        <v>2053822.652304972</v>
+        <v>2211416.515277106</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.211475649957226e-06</v>
+        <v>1.798851377326993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.73828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1857808.700927182</v>
+        <v>2000362.026801631</v>
       </c>
     </row>
     <row r="7">
@@ -19488,28 +19488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1453.060965738817</v>
+        <v>1560.007481078444</v>
       </c>
       <c r="AB7" t="n">
-        <v>1988.142117849387</v>
+        <v>2134.471058284332</v>
       </c>
       <c r="AC7" t="n">
-        <v>1798.396624496829</v>
+        <v>1930.76013623062</v>
       </c>
       <c r="AD7" t="n">
-        <v>1453060.965738817</v>
+        <v>1560007.481078444</v>
       </c>
       <c r="AE7" t="n">
-        <v>1988142.117849387</v>
+        <v>2134471.058284332</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.231875888846764e-06</v>
+        <v>1.829142533261939e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.29557291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1798396.624496829</v>
+        <v>1930760.13623062</v>
       </c>
     </row>
     <row r="8">
@@ -19594,28 +19594,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1404.742409236984</v>
+        <v>1519.836707035462</v>
       </c>
       <c r="AB8" t="n">
-        <v>1922.030537179312</v>
+        <v>2079.507633029249</v>
       </c>
       <c r="AC8" t="n">
-        <v>1738.59464029772</v>
+        <v>1881.042343140231</v>
       </c>
       <c r="AD8" t="n">
-        <v>1404742.409236984</v>
+        <v>1519836.707035462</v>
       </c>
       <c r="AE8" t="n">
-        <v>1922030.537179312</v>
+        <v>2079507.633029249</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.247101432993589e-06</v>
+        <v>1.851750078910947e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.97330729166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1738594.64029772</v>
+        <v>1881042.343140231</v>
       </c>
     </row>
     <row r="9">
@@ -19700,28 +19700,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1369.396944031273</v>
+        <v>1476.428710716921</v>
       </c>
       <c r="AB9" t="n">
-        <v>1873.669312352986</v>
+        <v>2020.11489744058</v>
       </c>
       <c r="AC9" t="n">
-        <v>1694.848942893412</v>
+        <v>1827.317966877916</v>
       </c>
       <c r="AD9" t="n">
-        <v>1369396.944031273</v>
+        <v>1476428.710716921</v>
       </c>
       <c r="AE9" t="n">
-        <v>1873669.312352986</v>
+        <v>2020114.89744058</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259242062966875e-06</v>
+        <v>1.869777010735647e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.72591145833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1694848.942893412</v>
+        <v>1827317.966877916</v>
       </c>
     </row>
     <row r="10">
@@ -19806,28 +19806,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1343.793018286787</v>
+        <v>1450.824784972434</v>
       </c>
       <c r="AB10" t="n">
-        <v>1838.636891583896</v>
+        <v>1985.08247667149</v>
       </c>
       <c r="AC10" t="n">
-        <v>1663.159967194214</v>
+        <v>1795.628991178717</v>
       </c>
       <c r="AD10" t="n">
-        <v>1343793.018286787</v>
+        <v>1450824.784972434</v>
       </c>
       <c r="AE10" t="n">
-        <v>1838636.891583896</v>
+        <v>1985082.47667149</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.267501671883127e-06</v>
+        <v>1.882041234845893e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.556640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1663159.967194214</v>
+        <v>1795628.991178717</v>
       </c>
     </row>
     <row r="11">
@@ -19912,28 +19912,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1314.111258722183</v>
+        <v>1420.972433207239</v>
       </c>
       <c r="AB11" t="n">
-        <v>1798.024998680792</v>
+        <v>1944.237171993539</v>
       </c>
       <c r="AC11" t="n">
-        <v>1626.424016350632</v>
+        <v>1758.681905052484</v>
       </c>
       <c r="AD11" t="n">
-        <v>1314111.258722184</v>
+        <v>1420972.433207239</v>
       </c>
       <c r="AE11" t="n">
-        <v>1798024.998680792</v>
+        <v>1944237.171993539</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.275562254078505e-06</v>
+        <v>1.894009935483604e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.39388020833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1626424.016350632</v>
+        <v>1758681.905052484</v>
       </c>
     </row>
     <row r="12">
@@ -20018,28 +20018,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1288.932612443491</v>
+        <v>1395.793786928546</v>
       </c>
       <c r="AB12" t="n">
-        <v>1763.574464038807</v>
+        <v>1909.786637351554</v>
       </c>
       <c r="AC12" t="n">
-        <v>1595.261392383249</v>
+        <v>1727.519281085101</v>
       </c>
       <c r="AD12" t="n">
-        <v>1288932.612443491</v>
+        <v>1395793.786928546</v>
       </c>
       <c r="AE12" t="n">
-        <v>1763574.464038807</v>
+        <v>1909786.637351554</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.281433542344274e-06</v>
+        <v>1.902727877923418e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.27994791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1595261.392383249</v>
+        <v>1727519.281085101</v>
       </c>
     </row>
     <row r="13">
@@ -20124,28 +20124,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1262.788975656502</v>
+        <v>1369.650150141558</v>
       </c>
       <c r="AB13" t="n">
-        <v>1727.803586810996</v>
+        <v>1874.015760123743</v>
       </c>
       <c r="AC13" t="n">
-        <v>1562.904437473318</v>
+        <v>1695.162326175171</v>
       </c>
       <c r="AD13" t="n">
-        <v>1262788.975656502</v>
+        <v>1369650.150141558</v>
       </c>
       <c r="AE13" t="n">
-        <v>1727803.586810996</v>
+        <v>1874015.760123743</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.28680726380786e-06</v>
+        <v>1.910707011681891e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.17252604166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1562904.437473318</v>
+        <v>1695162.326175171</v>
       </c>
     </row>
     <row r="14">
@@ -20230,28 +20230,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1255.002561953419</v>
+        <v>1361.863736438474</v>
       </c>
       <c r="AB14" t="n">
-        <v>1717.149872070108</v>
+        <v>1863.362045382855</v>
       </c>
       <c r="AC14" t="n">
-        <v>1553.267498314718</v>
+        <v>1685.52538701657</v>
       </c>
       <c r="AD14" t="n">
-        <v>1255002.561953418</v>
+        <v>1361863.736438474</v>
       </c>
       <c r="AE14" t="n">
-        <v>1717149.872070108</v>
+        <v>1863362.045382855</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.288498990935285e-06</v>
+        <v>1.913218961198447e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.13997395833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1553267.498314718</v>
+        <v>1685525.38701657</v>
       </c>
     </row>
     <row r="15">
@@ -20336,28 +20336,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1255.312693321951</v>
+        <v>1362.173867807007</v>
       </c>
       <c r="AB15" t="n">
-        <v>1717.574207490565</v>
+        <v>1863.786380803312</v>
       </c>
       <c r="AC15" t="n">
-        <v>1553.651335758205</v>
+        <v>1685.909224460057</v>
       </c>
       <c r="AD15" t="n">
-        <v>1255312.693321951</v>
+        <v>1362173.867807007</v>
       </c>
       <c r="AE15" t="n">
-        <v>1717574.207490565</v>
+        <v>1863786.380803312</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.289394611179216e-06</v>
+        <v>1.91454881682486e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.12369791666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1553651.335758205</v>
+        <v>1685909.224460057</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3885.329295359648</v>
+        <v>4085.762760570026</v>
       </c>
       <c r="AB2" t="n">
-        <v>5316.07895054247</v>
+        <v>5590.320860143738</v>
       </c>
       <c r="AC2" t="n">
-        <v>4808.719836666166</v>
+        <v>5056.788483316013</v>
       </c>
       <c r="AD2" t="n">
-        <v>3885329.295359648</v>
+        <v>4085762.760570026</v>
       </c>
       <c r="AE2" t="n">
-        <v>5316078.95054247</v>
+        <v>5590320.860143738</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.937357465065145e-07</v>
+        <v>1.020098510962502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.74869791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4808719.836666166</v>
+        <v>5056788.483316014</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2220.396906675278</v>
+        <v>2362.235577688108</v>
       </c>
       <c r="AB3" t="n">
-        <v>3038.045004711354</v>
+        <v>3232.114931871653</v>
       </c>
       <c r="AC3" t="n">
-        <v>2748.098253384531</v>
+        <v>2923.646419075498</v>
       </c>
       <c r="AD3" t="n">
-        <v>2220396.906675278</v>
+        <v>2362235.577688108</v>
       </c>
       <c r="AE3" t="n">
-        <v>3038045.004711354</v>
+        <v>3232114.931871654</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.774702542133249e-07</v>
+        <v>1.437313783893055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.470703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2748098.253384531</v>
+        <v>2923646.419075498</v>
       </c>
     </row>
     <row r="4">
@@ -20845,28 +20845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1887.489515640988</v>
+        <v>2012.696515265096</v>
       </c>
       <c r="AB4" t="n">
-        <v>2582.546425460516</v>
+        <v>2753.860166089199</v>
       </c>
       <c r="AC4" t="n">
-        <v>2336.071819241238</v>
+        <v>2491.035616904664</v>
       </c>
       <c r="AD4" t="n">
-        <v>1887489.515640988</v>
+        <v>2012696.515265096</v>
       </c>
       <c r="AE4" t="n">
-        <v>2582546.425460516</v>
+        <v>2753860.166089199</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.081213730570729e-06</v>
+        <v>1.589862598462851e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.35546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2336071.819241238</v>
+        <v>2491035.616904663</v>
       </c>
     </row>
     <row r="5">
@@ -20951,28 +20951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1733.571540468001</v>
+        <v>1858.778450583558</v>
       </c>
       <c r="AB5" t="n">
-        <v>2371.949061447012</v>
+        <v>2543.262679606146</v>
       </c>
       <c r="AC5" t="n">
-        <v>2145.573572073925</v>
+        <v>2300.537258956124</v>
       </c>
       <c r="AD5" t="n">
-        <v>1733571.540468001</v>
+        <v>1858778.450583558</v>
       </c>
       <c r="AE5" t="n">
-        <v>2371949.061447012</v>
+        <v>2543262.679606146</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.135620553698015e-06</v>
+        <v>1.66986470234438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.94921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2145573.572073925</v>
+        <v>2300537.258956124</v>
       </c>
     </row>
     <row r="6">
@@ -21057,28 +21057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1653.516538552651</v>
+        <v>1770.365032055113</v>
       </c>
       <c r="AB6" t="n">
-        <v>2262.414276049007</v>
+        <v>2422.291539850787</v>
       </c>
       <c r="AC6" t="n">
-        <v>2046.492632861268</v>
+        <v>2191.111434994956</v>
       </c>
       <c r="AD6" t="n">
-        <v>1653516.538552651</v>
+        <v>1770365.032055113</v>
       </c>
       <c r="AE6" t="n">
-        <v>2262414.276049007</v>
+        <v>2422291.539850787</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.168869167831356e-06</v>
+        <v>1.718754876938648e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.15494791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2046492.632861268</v>
+        <v>2191111.434994956</v>
       </c>
     </row>
     <row r="7">
@@ -21163,28 +21163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1589.338567247733</v>
+        <v>1706.272312096215</v>
       </c>
       <c r="AB7" t="n">
-        <v>2174.60314437735</v>
+        <v>2334.597052831779</v>
       </c>
       <c r="AC7" t="n">
-        <v>1967.062072352657</v>
+        <v>2111.786386737056</v>
       </c>
       <c r="AD7" t="n">
-        <v>1589338.567247733</v>
+        <v>1706272.312096215</v>
       </c>
       <c r="AE7" t="n">
-        <v>2174603.144377349</v>
+        <v>2334597.052831779</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.191684932368604e-06</v>
+        <v>1.752304146308321e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.63411458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1967062.072352657</v>
+        <v>2111786.386737056</v>
       </c>
     </row>
     <row r="8">
@@ -21269,28 +21269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1546.842783936429</v>
+        <v>1655.418112171816</v>
       </c>
       <c r="AB8" t="n">
-        <v>2116.45853886918</v>
+        <v>2265.016092966256</v>
       </c>
       <c r="AC8" t="n">
-        <v>1914.46670638772</v>
+        <v>2048.846136023608</v>
       </c>
       <c r="AD8" t="n">
-        <v>1546842.78393643</v>
+        <v>1655418.112171816</v>
       </c>
       <c r="AE8" t="n">
-        <v>2116458.53886918</v>
+        <v>2265016.092966256</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.208748004137914e-06</v>
+        <v>1.777394411862564e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.259765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1914466.70638772</v>
+        <v>2048846.136023608</v>
       </c>
     </row>
     <row r="9">
@@ -21375,28 +21375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1514.431956275512</v>
+        <v>1623.007284510899</v>
       </c>
       <c r="AB9" t="n">
-        <v>2072.11261459871</v>
+        <v>2220.670168695787</v>
       </c>
       <c r="AC9" t="n">
-        <v>1874.353094889729</v>
+        <v>2008.732524525617</v>
       </c>
       <c r="AD9" t="n">
-        <v>1514431.956275512</v>
+        <v>1623007.284510899</v>
       </c>
       <c r="AE9" t="n">
-        <v>2072112.614598711</v>
+        <v>2220670.168695787</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.220545899475551e-06</v>
+        <v>1.794742538331497e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1874353.094889729</v>
+        <v>2008732.524525617</v>
       </c>
     </row>
     <row r="10">
@@ -21481,28 +21481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1478.234754019802</v>
+        <v>1595.083158013713</v>
       </c>
       <c r="AB10" t="n">
-        <v>2022.586005564589</v>
+        <v>2182.463146896821</v>
       </c>
       <c r="AC10" t="n">
-        <v>1829.553235910792</v>
+        <v>1974.171927263253</v>
       </c>
       <c r="AD10" t="n">
-        <v>1478234.754019802</v>
+        <v>1595083.158013713</v>
       </c>
       <c r="AE10" t="n">
-        <v>2022586.005564589</v>
+        <v>2182463.146896821</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.230003716399112e-06</v>
+        <v>1.808649714095849e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.80403645833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1829553.235910792</v>
+        <v>1974171.927263253</v>
       </c>
     </row>
     <row r="11">
@@ -21587,28 +21587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1450.517990850632</v>
+        <v>1559.178570432039</v>
       </c>
       <c r="AB11" t="n">
-        <v>1984.662707419238</v>
+        <v>2133.336906168963</v>
       </c>
       <c r="AC11" t="n">
-        <v>1795.24928411475</v>
+        <v>1929.734226001349</v>
       </c>
       <c r="AD11" t="n">
-        <v>1450517.990850632</v>
+        <v>1559178.570432039</v>
       </c>
       <c r="AE11" t="n">
-        <v>1984662.707419238</v>
+        <v>2133336.906168963</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.238096487581127e-06</v>
+        <v>1.820549668615862e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.634765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1795249.28411475</v>
+        <v>1929734.22600135</v>
       </c>
     </row>
     <row r="12">
@@ -21693,28 +21693,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1425.239253112077</v>
+        <v>1533.729240492892</v>
       </c>
       <c r="AB12" t="n">
-        <v>1950.075223226147</v>
+        <v>2098.516010201026</v>
       </c>
       <c r="AC12" t="n">
-        <v>1763.962780869209</v>
+        <v>1898.236587473157</v>
       </c>
       <c r="AD12" t="n">
-        <v>1425239.253112077</v>
+        <v>1533729.240492892</v>
       </c>
       <c r="AE12" t="n">
-        <v>1950075.223226147</v>
+        <v>2098516.010201026</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.245604239159624e-06</v>
+        <v>1.831589385459729e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.48177083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1763962.780869209</v>
+        <v>1898236.587473157</v>
       </c>
     </row>
     <row r="13">
@@ -21799,28 +21799,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1401.876475170594</v>
+        <v>1510.366462551408</v>
       </c>
       <c r="AB13" t="n">
-        <v>1918.109239753589</v>
+        <v>2066.550026728467</v>
       </c>
       <c r="AC13" t="n">
-        <v>1735.047585994732</v>
+        <v>1869.321392598681</v>
       </c>
       <c r="AD13" t="n">
-        <v>1401876.475170594</v>
+        <v>1510366.462551408</v>
       </c>
       <c r="AE13" t="n">
-        <v>1918109.239753589</v>
+        <v>2066550.026728467</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.25038189925503e-06</v>
+        <v>1.838614659814916e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.38411458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1735047.585994732</v>
+        <v>1869321.392598681</v>
       </c>
     </row>
     <row r="14">
@@ -21905,28 +21905,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1382.490330498815</v>
+        <v>1490.980317879629</v>
       </c>
       <c r="AB14" t="n">
-        <v>1891.584261357319</v>
+        <v>2040.025048332197</v>
       </c>
       <c r="AC14" t="n">
-        <v>1711.054114308561</v>
+        <v>1845.327920912509</v>
       </c>
       <c r="AD14" t="n">
-        <v>1382490.330498815</v>
+        <v>1490980.317879629</v>
       </c>
       <c r="AE14" t="n">
-        <v>1891584.261357319</v>
+        <v>2040025.048332197</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.255159559350437e-06</v>
+        <v>1.845639934170104e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1711054.114308561</v>
+        <v>1845327.920912509</v>
       </c>
     </row>
     <row r="15">
@@ -22011,28 +22011,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1360.851470176342</v>
+        <v>1469.341457557157</v>
       </c>
       <c r="AB15" t="n">
-        <v>1861.97701802497</v>
+        <v>2010.417804999848</v>
       </c>
       <c r="AC15" t="n">
-        <v>1684.272544725825</v>
+        <v>1818.546351329773</v>
       </c>
       <c r="AD15" t="n">
-        <v>1360851.470176342</v>
+        <v>1469341.457557157</v>
       </c>
       <c r="AE15" t="n">
-        <v>1861977.01802497</v>
+        <v>2010417.804999848</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.259547206376831e-06</v>
+        <v>1.852091716741195e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.19856770833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1684272.544725825</v>
+        <v>1818546.351329773</v>
       </c>
     </row>
     <row r="16">
@@ -22117,28 +22117,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1341.872943382226</v>
+        <v>1450.362930763041</v>
       </c>
       <c r="AB16" t="n">
-        <v>1836.00976039175</v>
+        <v>1984.450547366628</v>
       </c>
       <c r="AC16" t="n">
-        <v>1660.783565715844</v>
+        <v>1795.057372319792</v>
       </c>
       <c r="AD16" t="n">
-        <v>1341872.943382226</v>
+        <v>1450362.930763041</v>
       </c>
       <c r="AE16" t="n">
-        <v>1836009.76039175</v>
+        <v>1984450.547366628</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.262959820730693e-06</v>
+        <v>1.857109769852044e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.13020833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1660783.565715844</v>
+        <v>1795057.372319792</v>
       </c>
     </row>
     <row r="17">
@@ -22223,28 +22223,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1328.840334730447</v>
+        <v>1437.330322111262</v>
       </c>
       <c r="AB17" t="n">
-        <v>1818.177970276271</v>
+        <v>1966.618757251149</v>
       </c>
       <c r="AC17" t="n">
-        <v>1644.653616621911</v>
+        <v>1778.92742322586</v>
       </c>
       <c r="AD17" t="n">
-        <v>1328840.334730447</v>
+        <v>1437330.322111262</v>
       </c>
       <c r="AE17" t="n">
-        <v>1818177.970276271</v>
+        <v>1966618.757251149</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264422369739491e-06</v>
+        <v>1.859260364042407e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.10091145833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1644653.616621911</v>
+        <v>1778927.42322586</v>
       </c>
     </row>
     <row r="18">
@@ -22329,28 +22329,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1332.789254607808</v>
+        <v>1441.279241988623</v>
       </c>
       <c r="AB18" t="n">
-        <v>1823.581056666525</v>
+        <v>1972.021843641404</v>
       </c>
       <c r="AC18" t="n">
-        <v>1649.541040030359</v>
+        <v>1783.814846634308</v>
       </c>
       <c r="AD18" t="n">
-        <v>1332789.254607808</v>
+        <v>1441279.241988623</v>
       </c>
       <c r="AE18" t="n">
-        <v>1823581.056666525</v>
+        <v>1972021.843641404</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.264129859937732e-06</v>
+        <v>1.858830245204335e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.107421875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1649541.040030359</v>
+        <v>1783814.846634308</v>
       </c>
     </row>
     <row r="19">
@@ -22435,28 +22435,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1337.236374834118</v>
+        <v>1445.726362214933</v>
       </c>
       <c r="AB19" t="n">
-        <v>1829.665802753261</v>
+        <v>1978.106589728139</v>
       </c>
       <c r="AC19" t="n">
-        <v>1655.045066490572</v>
+        <v>1789.318873094521</v>
       </c>
       <c r="AD19" t="n">
-        <v>1337236.374834118</v>
+        <v>1445726.362214933</v>
       </c>
       <c r="AE19" t="n">
-        <v>1829665.802753261</v>
+        <v>1978106.589728139</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.264227363204985e-06</v>
+        <v>1.858973618150359e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.107421875</v>
       </c>
       <c r="AH19" t="n">
-        <v>1655045.066490572</v>
+        <v>1789318.873094521</v>
       </c>
     </row>
     <row r="20">
@@ -22541,28 +22541,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1343.083433848429</v>
+        <v>1451.573421229244</v>
       </c>
       <c r="AB20" t="n">
-        <v>1837.66600685068</v>
+        <v>1986.106793825558</v>
       </c>
       <c r="AC20" t="n">
-        <v>1662.28174233729</v>
+        <v>1796.555548941238</v>
       </c>
       <c r="AD20" t="n">
-        <v>1343083.433848429</v>
+        <v>1451573.421229244</v>
       </c>
       <c r="AE20" t="n">
-        <v>1837666.00685068</v>
+        <v>1986106.793825558</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.264129859937732e-06</v>
+        <v>1.858830245204335e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.107421875</v>
       </c>
       <c r="AH20" t="n">
-        <v>1662281.74233729</v>
+        <v>1796555.548941238</v>
       </c>
     </row>
   </sheetData>
@@ -22838,28 +22838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5589.700224885573</v>
+        <v>5821.328844164442</v>
       </c>
       <c r="AB2" t="n">
-        <v>7648.074447858636</v>
+        <v>7964.998943489481</v>
       </c>
       <c r="AC2" t="n">
-        <v>6918.152956694622</v>
+        <v>7204.830623268772</v>
       </c>
       <c r="AD2" t="n">
-        <v>5589700.224885574</v>
+        <v>5821328.844164441</v>
       </c>
       <c r="AE2" t="n">
-        <v>7648074.447858635</v>
+        <v>7964998.943489481</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667449030617091e-07</v>
+        <v>8.199509440424522e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.052734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>6918152.956694622</v>
+        <v>7204830.623268772</v>
       </c>
     </row>
     <row r="3">
@@ -22944,28 +22944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2768.659011008115</v>
+        <v>2922.964332557448</v>
       </c>
       <c r="AB3" t="n">
-        <v>3788.201403476551</v>
+        <v>3999.3287518907</v>
       </c>
       <c r="AC3" t="n">
-        <v>3426.660778302668</v>
+        <v>3617.638428903258</v>
       </c>
       <c r="AD3" t="n">
-        <v>2768659.011008115</v>
+        <v>2922964.332557448</v>
       </c>
       <c r="AE3" t="n">
-        <v>3788201.403476551</v>
+        <v>3999328.7518907</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.74210130279013e-07</v>
+        <v>1.264783181536091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.04231770833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3426660.778302668</v>
+        <v>3617638.428903258</v>
       </c>
     </row>
     <row r="4">
@@ -23050,28 +23050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2266.060259490554</v>
+        <v>2403.28684196925</v>
       </c>
       <c r="AB4" t="n">
-        <v>3100.523618558166</v>
+        <v>3288.283082715076</v>
       </c>
       <c r="AC4" t="n">
-        <v>2804.613996015086</v>
+        <v>2974.453960434918</v>
       </c>
       <c r="AD4" t="n">
-        <v>2266060.259490554</v>
+        <v>2403286.841969249</v>
       </c>
       <c r="AE4" t="n">
-        <v>3100523.618558166</v>
+        <v>3288283.082715076</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.915682993454281e-07</v>
+        <v>1.434573753973975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.89518229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2804613.996015086</v>
+        <v>2974453.960434918</v>
       </c>
     </row>
     <row r="5">
@@ -23156,28 +23156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2066.083580703989</v>
+        <v>2194.642916628337</v>
       </c>
       <c r="AB5" t="n">
-        <v>2826.906704293792</v>
+        <v>3002.807259343274</v>
       </c>
       <c r="AC5" t="n">
-        <v>2557.11069602447</v>
+        <v>2716.223548977896</v>
       </c>
       <c r="AD5" t="n">
-        <v>2066083.580703989</v>
+        <v>2194642.916628337</v>
       </c>
       <c r="AE5" t="n">
-        <v>2826906.704293792</v>
+        <v>3002807.259343274</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.053400149446979e-06</v>
+        <v>1.524030374737159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.08203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2557110.69602447</v>
+        <v>2716223.548977897</v>
       </c>
     </row>
     <row r="6">
@@ -23262,28 +23262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1949.817441558562</v>
+        <v>2069.88012312915</v>
       </c>
       <c r="AB6" t="n">
-        <v>2667.826243414968</v>
+        <v>2832.101301131529</v>
       </c>
       <c r="AC6" t="n">
-        <v>2413.212651061092</v>
+        <v>2561.809527830676</v>
       </c>
       <c r="AD6" t="n">
-        <v>1949817.441558562</v>
+        <v>2069880.12312915</v>
       </c>
       <c r="AE6" t="n">
-        <v>2667826.243414968</v>
+        <v>2832101.301131528</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.091986235507308e-06</v>
+        <v>1.579855663189069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.05338541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2413212.651061092</v>
+        <v>2561809.527830676</v>
       </c>
     </row>
     <row r="7">
@@ -23368,28 +23368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1870.105906787616</v>
+        <v>1990.083247503632</v>
       </c>
       <c r="AB7" t="n">
-        <v>2558.761404916636</v>
+        <v>2722.919695510999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2314.556807675579</v>
+        <v>2463.048061413224</v>
       </c>
       <c r="AD7" t="n">
-        <v>1870105.906787616</v>
+        <v>1990083.247503632</v>
       </c>
       <c r="AE7" t="n">
-        <v>2558761.404916636</v>
+        <v>2722919.695510999</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.118243596509337e-06</v>
+        <v>1.617844091184394e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.39583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2314556.807675579</v>
+        <v>2463048.061413224</v>
       </c>
     </row>
     <row r="8">
@@ -23474,28 +23474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1806.243085804185</v>
+        <v>1926.305677866222</v>
       </c>
       <c r="AB8" t="n">
-        <v>2471.381475818288</v>
+        <v>2635.6564110653</v>
       </c>
       <c r="AC8" t="n">
-        <v>2235.516296371876</v>
+        <v>2384.113062360233</v>
       </c>
       <c r="AD8" t="n">
-        <v>1806243.085804185</v>
+        <v>1926305.677866222</v>
       </c>
       <c r="AE8" t="n">
-        <v>2471381.475818289</v>
+        <v>2635656.4110653</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.13894832561488e-06</v>
+        <v>1.647799124012248e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.89778645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2235516.296371876</v>
+        <v>2384113.062360233</v>
       </c>
     </row>
     <row r="9">
@@ -23580,28 +23580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1767.23752456705</v>
+        <v>1887.300116629087</v>
       </c>
       <c r="AB9" t="n">
-        <v>2418.012346129726</v>
+        <v>2582.287281376738</v>
       </c>
       <c r="AC9" t="n">
-        <v>2187.240641516747</v>
+        <v>2335.837407505104</v>
       </c>
       <c r="AD9" t="n">
-        <v>1767237.52456705</v>
+        <v>1887300.116629087</v>
       </c>
       <c r="AE9" t="n">
-        <v>2418012.346129726</v>
+        <v>2582287.281376738</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.153253411178709e-06</v>
+        <v>1.668495328511493e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2187240.641516747</v>
+        <v>2335837.407505104</v>
       </c>
     </row>
     <row r="10">
@@ -23686,28 +23686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1736.405302525657</v>
+        <v>1847.885988887915</v>
       </c>
       <c r="AB10" t="n">
-        <v>2375.826339711056</v>
+        <v>2528.359132972673</v>
       </c>
       <c r="AC10" t="n">
-        <v>2149.080808342243</v>
+        <v>2287.056085896091</v>
       </c>
       <c r="AD10" t="n">
-        <v>1736405.302525657</v>
+        <v>1847885.988887915</v>
       </c>
       <c r="AE10" t="n">
-        <v>2375826.339711056</v>
+        <v>2528359.132972673</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.163982225351581e-06</v>
+        <v>1.684017481885926e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.32161458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2149080.808342243</v>
+        <v>2287056.085896091</v>
       </c>
     </row>
     <row r="11">
@@ -23792,28 +23792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1710.315386856418</v>
+        <v>1821.796073218677</v>
       </c>
       <c r="AB11" t="n">
-        <v>2340.128966086559</v>
+        <v>2492.661759348176</v>
       </c>
       <c r="AC11" t="n">
-        <v>2116.790341954889</v>
+        <v>2254.765619508737</v>
       </c>
       <c r="AD11" t="n">
-        <v>1710315.386856418</v>
+        <v>1821796.073218677</v>
       </c>
       <c r="AE11" t="n">
-        <v>2340128.966086559</v>
+        <v>2492661.759348175</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.1733934658541e-06</v>
+        <v>1.697633405898588e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.11002604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2116790.341954889</v>
+        <v>2254765.619508737</v>
       </c>
     </row>
     <row r="12">
@@ -23898,28 +23898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1676.912164470438</v>
+        <v>1796.889415677903</v>
       </c>
       <c r="AB12" t="n">
-        <v>2294.425203571893</v>
+        <v>2458.583371696707</v>
       </c>
       <c r="AC12" t="n">
-        <v>2075.44848238899</v>
+        <v>2223.939625345407</v>
       </c>
       <c r="AD12" t="n">
-        <v>1676912.164470438</v>
+        <v>1796889.415677903</v>
       </c>
       <c r="AE12" t="n">
-        <v>2294425.203571893</v>
+        <v>2458583.371696707</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.181204795471191e-06</v>
+        <v>1.708934622829097e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.93424479166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2075448.48238899</v>
+        <v>2223939.625345408</v>
       </c>
     </row>
     <row r="13">
@@ -24004,28 +24004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1656.733020445303</v>
+        <v>1776.710271652768</v>
       </c>
       <c r="AB13" t="n">
-        <v>2266.815208475699</v>
+        <v>2430.973376600513</v>
       </c>
       <c r="AC13" t="n">
-        <v>2050.473546473905</v>
+        <v>2198.964689430322</v>
       </c>
       <c r="AD13" t="n">
-        <v>1656733.020445303</v>
+        <v>1776710.271652768</v>
       </c>
       <c r="AE13" t="n">
-        <v>2266815.208475699</v>
+        <v>2430973.376600513</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.187039764582753e-06</v>
+        <v>1.717376495716947e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2050473.546473905</v>
+        <v>2198964.689430322</v>
       </c>
     </row>
     <row r="14">
@@ -24110,28 +24110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1637.761535636145</v>
+        <v>1749.327473344424</v>
       </c>
       <c r="AB14" t="n">
-        <v>2240.857585996969</v>
+        <v>2393.507023911236</v>
       </c>
       <c r="AC14" t="n">
-        <v>2026.993283052792</v>
+        <v>2165.074072857353</v>
       </c>
       <c r="AD14" t="n">
-        <v>1637761.535636145</v>
+        <v>1749327.473344424</v>
       </c>
       <c r="AE14" t="n">
-        <v>2240857.585996969</v>
+        <v>2393507.023911235</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.192310059264163e-06</v>
+        <v>1.725001413164037e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.693359375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2026993.283052792</v>
+        <v>2165074.072857353</v>
       </c>
     </row>
     <row r="15">
@@ -24216,28 +24216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1620.814400008131</v>
+        <v>1732.38033771641</v>
       </c>
       <c r="AB15" t="n">
-        <v>2217.669767375863</v>
+        <v>2370.31920529013</v>
       </c>
       <c r="AC15" t="n">
-        <v>2006.018477296577</v>
+        <v>2144.099267101138</v>
       </c>
       <c r="AD15" t="n">
-        <v>1620814.400008131</v>
+        <v>1732380.33771641</v>
       </c>
       <c r="AE15" t="n">
-        <v>2217669.767375863</v>
+        <v>2370319.205290129</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.196921567110398e-06</v>
+        <v>1.731673215930241e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.595703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>2006018.477296577</v>
+        <v>2144099.267101138</v>
       </c>
     </row>
     <row r="16">
@@ -24322,28 +24322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1602.887875101989</v>
+        <v>1714.283220609677</v>
       </c>
       <c r="AB16" t="n">
-        <v>2193.141905136818</v>
+        <v>2345.557931276237</v>
       </c>
       <c r="AC16" t="n">
-        <v>1983.831519804555</v>
+        <v>2121.701174326465</v>
       </c>
       <c r="AD16" t="n">
-        <v>1602887.875101989</v>
+        <v>1714283.220609677</v>
       </c>
       <c r="AE16" t="n">
-        <v>2193141.905136818</v>
+        <v>2345557.931276237</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.201627187361658e-06</v>
+        <v>1.738481177936571e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.49479166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1983831.519804555</v>
+        <v>2121701.174326465</v>
       </c>
     </row>
     <row r="17">
@@ -24428,28 +24428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1587.789992517673</v>
+        <v>1699.18533802536</v>
       </c>
       <c r="AB17" t="n">
-        <v>2172.484316113386</v>
+        <v>2324.900342252805</v>
       </c>
       <c r="AC17" t="n">
-        <v>1965.145462084412</v>
+        <v>2103.015116606321</v>
       </c>
       <c r="AD17" t="n">
-        <v>1587789.992517673</v>
+        <v>1699185.33802536</v>
       </c>
       <c r="AE17" t="n">
-        <v>2172484.316113386</v>
+        <v>2324900.342252805</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.204921121537539e-06</v>
+        <v>1.743246751341003e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.42643229166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1965145.462084412</v>
+        <v>2103015.116606321</v>
       </c>
     </row>
     <row r="18">
@@ -24534,28 +24534,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1570.225670824305</v>
+        <v>1681.621016331992</v>
       </c>
       <c r="AB18" t="n">
-        <v>2148.452036289335</v>
+        <v>2300.868062428754</v>
       </c>
       <c r="AC18" t="n">
-        <v>1943.406789317252</v>
+        <v>2081.276443839161</v>
       </c>
       <c r="AD18" t="n">
-        <v>1570225.670824305</v>
+        <v>1681621.016331992</v>
       </c>
       <c r="AE18" t="n">
-        <v>2148452.036289335</v>
+        <v>2300868.062428754</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.208685617738547e-06</v>
+        <v>1.748693120946067e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.34830729166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1943406.789317252</v>
+        <v>2081276.443839161</v>
       </c>
     </row>
     <row r="19">
@@ -24640,28 +24640,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1555.035875880094</v>
+        <v>1666.431221387781</v>
       </c>
       <c r="AB19" t="n">
-        <v>2127.668688720208</v>
+        <v>2280.084714859627</v>
       </c>
       <c r="AC19" t="n">
-        <v>1924.606975270511</v>
+        <v>2062.476629792419</v>
       </c>
       <c r="AD19" t="n">
-        <v>1555035.875880094</v>
+        <v>1666431.221387781</v>
       </c>
       <c r="AE19" t="n">
-        <v>2127668.688720208</v>
+        <v>2280084.714859627</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.210661978244076e-06</v>
+        <v>1.751552464988726e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.30598958333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1924606.975270511</v>
+        <v>2062476.629792419</v>
       </c>
     </row>
     <row r="20">
@@ -24746,28 +24746,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1537.888065772329</v>
+        <v>1649.283411280016</v>
       </c>
       <c r="AB20" t="n">
-        <v>2104.206298422774</v>
+        <v>2256.622324562193</v>
       </c>
       <c r="AC20" t="n">
-        <v>1903.383802573392</v>
+        <v>2041.253457095301</v>
       </c>
       <c r="AD20" t="n">
-        <v>1537888.065772329</v>
+        <v>1649283.411280016</v>
       </c>
       <c r="AE20" t="n">
-        <v>2104206.298422774</v>
+        <v>2256622.324562193</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.214426474445084e-06</v>
+        <v>1.75699883459379e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.22786458333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1903383.802573392</v>
+        <v>2041253.457095301</v>
       </c>
     </row>
     <row r="21">
@@ -24852,28 +24852,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1524.944730966182</v>
+        <v>1636.340076473869</v>
       </c>
       <c r="AB21" t="n">
-        <v>2086.496656721372</v>
+        <v>2238.912682860791</v>
       </c>
       <c r="AC21" t="n">
-        <v>1887.364344220333</v>
+        <v>2025.233998742242</v>
       </c>
       <c r="AD21" t="n">
-        <v>1524944.730966182</v>
+        <v>1636340.076473869</v>
       </c>
       <c r="AE21" t="n">
-        <v>2086496.656721372</v>
+        <v>2238912.682860791</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.216685172165688e-06</v>
+        <v>1.760266656356829e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.17903645833333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1887364.344220333</v>
+        <v>2025233.998742242</v>
       </c>
     </row>
     <row r="22">
@@ -24958,28 +24958,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1514.241489425748</v>
+        <v>1625.636834933435</v>
       </c>
       <c r="AB22" t="n">
-        <v>2071.852009452059</v>
+        <v>2224.268035591478</v>
       </c>
       <c r="AC22" t="n">
-        <v>1874.117361532512</v>
+        <v>2011.987016054421</v>
       </c>
       <c r="AD22" t="n">
-        <v>1514241.489425748</v>
+        <v>1625636.834933435</v>
       </c>
       <c r="AE22" t="n">
-        <v>2071852.009452059</v>
+        <v>2224268.035591478</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.217814521025991e-06</v>
+        <v>1.761900567238348e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH22" t="n">
-        <v>1874117.361532512</v>
+        <v>2011987.016054421</v>
       </c>
     </row>
     <row r="23">
@@ -25064,28 +25064,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1503.076484483888</v>
+        <v>1614.471829991575</v>
       </c>
       <c r="AB23" t="n">
-        <v>2056.575557125351</v>
+        <v>2208.99158326477</v>
       </c>
       <c r="AC23" t="n">
-        <v>1860.29887237523</v>
+        <v>1998.168526897139</v>
       </c>
       <c r="AD23" t="n">
-        <v>1503076.484483888</v>
+        <v>1614471.829991575</v>
       </c>
       <c r="AE23" t="n">
-        <v>2056575.557125351</v>
+        <v>2208991.58326477</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.220261443556646e-06</v>
+        <v>1.76544070748164e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1860298.87237523</v>
+        <v>1998168.526897139</v>
       </c>
     </row>
     <row r="24">
@@ -25170,28 +25170,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1493.487561266249</v>
+        <v>1604.882906773935</v>
       </c>
       <c r="AB24" t="n">
-        <v>2043.455569345541</v>
+        <v>2195.87159548496</v>
       </c>
       <c r="AC24" t="n">
-        <v>1848.431037815106</v>
+        <v>1986.300692337016</v>
       </c>
       <c r="AD24" t="n">
-        <v>1493487.561266249</v>
+        <v>1604882.906773936</v>
       </c>
       <c r="AE24" t="n">
-        <v>2043455.569345541</v>
+        <v>2195871.59548496</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.221390792416948e-06</v>
+        <v>1.76707461836316e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.08138020833333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1848431.037815107</v>
+        <v>1986300.692337016</v>
       </c>
     </row>
     <row r="25">
@@ -25276,28 +25276,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1488.118181012915</v>
+        <v>1591.102213021416</v>
       </c>
       <c r="AB25" t="n">
-        <v>2036.108946402592</v>
+        <v>2177.016242331462</v>
       </c>
       <c r="AC25" t="n">
-        <v>1841.785566254782</v>
+        <v>1969.244867624833</v>
       </c>
       <c r="AD25" t="n">
-        <v>1488118.181012915</v>
+        <v>1591102.213021416</v>
       </c>
       <c r="AE25" t="n">
-        <v>2036108.946402592</v>
+        <v>2177016.242331462</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.222237804062175e-06</v>
+        <v>1.768300051524299e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.06510416666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1841785.566254782</v>
+        <v>1969244.867624833</v>
       </c>
     </row>
     <row r="26">
@@ -25382,28 +25382,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1490.6398110687</v>
+        <v>1593.6238430772</v>
       </c>
       <c r="AB26" t="n">
-        <v>2039.559151891383</v>
+        <v>2180.466447820254</v>
       </c>
       <c r="AC26" t="n">
-        <v>1844.906488974117</v>
+        <v>1972.365790344169</v>
       </c>
       <c r="AD26" t="n">
-        <v>1490639.8110687</v>
+        <v>1593623.8430772</v>
       </c>
       <c r="AE26" t="n">
-        <v>2039559.151891383</v>
+        <v>2180466.447820254</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.2223319164672e-06</v>
+        <v>1.768436210764426e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.06184895833333</v>
       </c>
       <c r="AH26" t="n">
-        <v>1844906.488974117</v>
+        <v>1972365.790344168</v>
       </c>
     </row>
   </sheetData>
@@ -25679,28 +25679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2668.712025956948</v>
+        <v>2830.457618420335</v>
       </c>
       <c r="AB2" t="n">
-        <v>3651.449529179752</v>
+        <v>3872.756984500096</v>
       </c>
       <c r="AC2" t="n">
-        <v>3302.9603109563</v>
+        <v>3503.146493347827</v>
       </c>
       <c r="AD2" t="n">
-        <v>2668712.025956948</v>
+        <v>2830457.618420335</v>
       </c>
       <c r="AE2" t="n">
-        <v>3651449.529179752</v>
+        <v>3872756.984500096</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.480190184872099e-07</v>
+        <v>1.273457112471146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.08528645833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3302960.3109563</v>
+        <v>3503146.493347827</v>
       </c>
     </row>
     <row r="3">
@@ -25785,28 +25785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1739.301267025593</v>
+        <v>1860.653154177556</v>
       </c>
       <c r="AB3" t="n">
-        <v>2379.788726100805</v>
+        <v>2545.827731769539</v>
       </c>
       <c r="AC3" t="n">
-        <v>2152.665030136198</v>
+        <v>2302.857506141117</v>
       </c>
       <c r="AD3" t="n">
-        <v>1739301.267025593</v>
+        <v>1860653.154177556</v>
       </c>
       <c r="AE3" t="n">
-        <v>2379788.726100805</v>
+        <v>2545827.731769539</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.097160876842139e-06</v>
+        <v>1.647589607874783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2152665.030136198</v>
+        <v>2302857.506141117</v>
       </c>
     </row>
     <row r="4">
@@ -25891,28 +25891,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1516.290062743513</v>
+        <v>1637.556519532354</v>
       </c>
       <c r="AB4" t="n">
-        <v>2074.654957842102</v>
+        <v>2240.57707391909</v>
       </c>
       <c r="AC4" t="n">
-        <v>1876.652800462172</v>
+        <v>2026.739542653926</v>
       </c>
       <c r="AD4" t="n">
-        <v>1516290.062743513</v>
+        <v>1637556.519532354</v>
       </c>
       <c r="AE4" t="n">
-        <v>2074654.957842102</v>
+        <v>2240577.07391909</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.185332862675963e-06</v>
+        <v>1.779996122390332e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.96223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1876652.800462172</v>
+        <v>2026739.542653926</v>
       </c>
     </row>
     <row r="5">
@@ -25997,28 +25997,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1412.291619585027</v>
+        <v>1525.54760799524</v>
       </c>
       <c r="AB5" t="n">
-        <v>1932.35969982516</v>
+        <v>2087.321539669587</v>
       </c>
       <c r="AC5" t="n">
-        <v>1747.938002157718</v>
+        <v>1888.110501497702</v>
       </c>
       <c r="AD5" t="n">
-        <v>1412291.619585027</v>
+        <v>1525547.60799524</v>
       </c>
       <c r="AE5" t="n">
-        <v>1932359.69982516</v>
+        <v>2087321.539669587</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231251529663325e-06</v>
+        <v>1.848951478102241e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.91731770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1747938.002157718</v>
+        <v>1888110.501497702</v>
       </c>
     </row>
     <row r="6">
@@ -26103,28 +26103,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1349.79482449432</v>
+        <v>1454.955093179886</v>
       </c>
       <c r="AB6" t="n">
-        <v>1846.848827618047</v>
+        <v>1990.733746577263</v>
       </c>
       <c r="AC6" t="n">
-        <v>1670.588167578789</v>
+        <v>1800.74091181629</v>
       </c>
       <c r="AD6" t="n">
-        <v>1349794.82449432</v>
+        <v>1454955.093179886</v>
       </c>
       <c r="AE6" t="n">
-        <v>1846848.827618047</v>
+        <v>1990733.746577263</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.259861608207556e-06</v>
+        <v>1.891914792858442e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.30859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1670588.167578789</v>
+        <v>1800740.91181629</v>
       </c>
     </row>
     <row r="7">
@@ -26209,28 +26209,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1297.951676501998</v>
+        <v>1411.122324057639</v>
       </c>
       <c r="AB7" t="n">
-        <v>1775.914745376681</v>
+        <v>1930.75981809891</v>
       </c>
       <c r="AC7" t="n">
-        <v>1606.423934589929</v>
+        <v>1746.490810897974</v>
       </c>
       <c r="AD7" t="n">
-        <v>1297951.676501998</v>
+        <v>1411122.324057639</v>
       </c>
       <c r="AE7" t="n">
-        <v>1775914.745376681</v>
+        <v>1930759.81809891</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.27757745755523e-06</v>
+        <v>1.918518411248402e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.94075520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1606423.934589929</v>
+        <v>1746490.810897974</v>
       </c>
     </row>
     <row r="8">
@@ -26315,28 +26315,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1259.451290157469</v>
+        <v>1364.696810189055</v>
       </c>
       <c r="AB8" t="n">
-        <v>1723.236818262927</v>
+        <v>1867.238381874793</v>
       </c>
       <c r="AC8" t="n">
-        <v>1558.773514905977</v>
+        <v>1689.03177139419</v>
       </c>
       <c r="AD8" t="n">
-        <v>1259451.290157469</v>
+        <v>1364696.810189055</v>
       </c>
       <c r="AE8" t="n">
-        <v>1723236.818262927</v>
+        <v>1867238.381874793</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.291627958762006e-06</v>
+        <v>1.939617832730094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.66080729166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1558773.514905977</v>
+        <v>1689031.77139419</v>
       </c>
     </row>
     <row r="9">
@@ -26421,28 +26421,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1227.635703509337</v>
+        <v>1332.710631340331</v>
       </c>
       <c r="AB9" t="n">
-        <v>1679.705329006331</v>
+        <v>1823.47348084335</v>
       </c>
       <c r="AC9" t="n">
-        <v>1519.396609887202</v>
+        <v>1649.443731092764</v>
       </c>
       <c r="AD9" t="n">
-        <v>1227635.703509337</v>
+        <v>1332710.631340331</v>
       </c>
       <c r="AE9" t="n">
-        <v>1679705.329006331</v>
+        <v>1823473.48084335</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.301605850923339e-06</v>
+        <v>1.954601479869267e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.46223958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1519396.609887202</v>
+        <v>1649443.731092764</v>
       </c>
     </row>
     <row r="10">
@@ -26527,28 +26527,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1195.742919292568</v>
+        <v>1300.817847123562</v>
       </c>
       <c r="AB10" t="n">
-        <v>1636.06821463061</v>
+        <v>1779.836366467628</v>
       </c>
       <c r="AC10" t="n">
-        <v>1479.924160462424</v>
+        <v>1609.971281667987</v>
       </c>
       <c r="AD10" t="n">
-        <v>1195742.919292568</v>
+        <v>1300817.847123562</v>
       </c>
       <c r="AE10" t="n">
-        <v>1636068.21463061</v>
+        <v>1779836.366467628</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.30985288424036e-06</v>
+        <v>1.966985922912869e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.302734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1479924.160462424</v>
+        <v>1609971.281667987</v>
       </c>
     </row>
     <row r="11">
@@ -26633,28 +26633,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1173.840318662397</v>
+        <v>1278.915246493391</v>
       </c>
       <c r="AB11" t="n">
-        <v>1606.100110173866</v>
+        <v>1749.868262010885</v>
       </c>
       <c r="AC11" t="n">
-        <v>1452.816169834534</v>
+        <v>1582.863291040096</v>
       </c>
       <c r="AD11" t="n">
-        <v>1173840.318662397</v>
+        <v>1278915.246493391</v>
       </c>
       <c r="AE11" t="n">
-        <v>1606100.110173866</v>
+        <v>1749868.262010885</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.314434569416482e-06</v>
+        <v>1.973866169048204e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.21484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1452816.169834534</v>
+        <v>1582863.291040096</v>
       </c>
     </row>
     <row r="12">
@@ -26739,28 +26739,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1174.618507563125</v>
+        <v>1279.693435394119</v>
       </c>
       <c r="AB12" t="n">
-        <v>1607.164862559114</v>
+        <v>1750.933014396133</v>
       </c>
       <c r="AC12" t="n">
-        <v>1453.779303746523</v>
+        <v>1583.826424952085</v>
       </c>
       <c r="AD12" t="n">
-        <v>1174618.507563125</v>
+        <v>1279693.435394119</v>
       </c>
       <c r="AE12" t="n">
-        <v>1607164.862559114</v>
+        <v>1750933.014396133</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.316063613034659e-06</v>
+        <v>1.976312478785212e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1453779.303746523</v>
+        <v>1583826.424952085</v>
       </c>
     </row>
     <row r="13">
@@ -26845,28 +26845,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1179.722402086503</v>
+        <v>1284.797329917497</v>
       </c>
       <c r="AB13" t="n">
-        <v>1614.148236213934</v>
+        <v>1757.916388050953</v>
       </c>
       <c r="AC13" t="n">
-        <v>1460.096194020954</v>
+        <v>1590.143315226516</v>
       </c>
       <c r="AD13" t="n">
-        <v>1179722.402086503</v>
+        <v>1284797.329917497</v>
       </c>
       <c r="AE13" t="n">
-        <v>1614148.236213934</v>
+        <v>1757916.388050953</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.315758167356251e-06</v>
+        <v>1.975853795709523e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.18880208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1460096.194020954</v>
+        <v>1590143.315226516</v>
       </c>
     </row>
   </sheetData>
@@ -27142,28 +27142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1939.089989546548</v>
+        <v>2080.452104549424</v>
       </c>
       <c r="AB2" t="n">
-        <v>2653.148470310348</v>
+        <v>2846.566352513651</v>
       </c>
       <c r="AC2" t="n">
-        <v>2399.935704021193</v>
+        <v>2574.894055010715</v>
       </c>
       <c r="AD2" t="n">
-        <v>1939089.989546548</v>
+        <v>2080452.104549424</v>
       </c>
       <c r="AE2" t="n">
-        <v>2653148.470310348</v>
+        <v>2846566.35251365</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.914275214936194e-07</v>
+        <v>1.520598737842707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.82096354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2399935.704021193</v>
+        <v>2574894.055010715</v>
       </c>
     </row>
     <row r="3">
@@ -27248,28 +27248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1386.031864667886</v>
+        <v>1503.819403694522</v>
       </c>
       <c r="AB3" t="n">
-        <v>1896.429944648904</v>
+        <v>2057.592051964623</v>
       </c>
       <c r="AC3" t="n">
-        <v>1715.437332387756</v>
+        <v>1861.218354373701</v>
       </c>
       <c r="AD3" t="n">
-        <v>1386031.864667886</v>
+        <v>1503819.403694522</v>
       </c>
       <c r="AE3" t="n">
-        <v>1896429.944648904</v>
+        <v>2057592.051964623</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.206088337015986e-06</v>
+        <v>1.849834065762437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.623046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1715437.332387756</v>
+        <v>1861218.354373701</v>
       </c>
     </row>
     <row r="4">
@@ -27354,28 +27354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1231.66037924832</v>
+        <v>1341.589726282875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1685.21206790857</v>
+        <v>1835.622250261761</v>
       </c>
       <c r="AC4" t="n">
-        <v>1524.377793357368</v>
+        <v>1660.433039008787</v>
       </c>
       <c r="AD4" t="n">
-        <v>1231660.37924832</v>
+        <v>1341589.726282875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1685212.06790857</v>
+        <v>1835622.250261761</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.281919603368996e-06</v>
+        <v>1.966140023994951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.93033854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1524377.793357368</v>
+        <v>1660433.039008787</v>
       </c>
     </row>
     <row r="5">
@@ -27460,28 +27460,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1158.147396967893</v>
+        <v>1260.218641518918</v>
       </c>
       <c r="AB5" t="n">
-        <v>1584.628362388602</v>
+        <v>1724.286742248814</v>
       </c>
       <c r="AC5" t="n">
-        <v>1433.393655522108</v>
+        <v>1559.723235620228</v>
       </c>
       <c r="AD5" t="n">
-        <v>1158147.396967893</v>
+        <v>1260218.641518918</v>
       </c>
       <c r="AE5" t="n">
-        <v>1584628.362388602</v>
+        <v>1724286.742248814</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320100380833449e-06</v>
+        <v>2.024699667300832e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.15234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1433393.655522108</v>
+        <v>1559723.235620229</v>
       </c>
     </row>
     <row r="6">
@@ -27566,28 +27566,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1092.572865274564</v>
+        <v>1194.72936117161</v>
       </c>
       <c r="AB6" t="n">
-        <v>1494.906395181625</v>
+        <v>1634.681419694486</v>
       </c>
       <c r="AC6" t="n">
-        <v>1352.234626939793</v>
+        <v>1478.669719288626</v>
       </c>
       <c r="AD6" t="n">
-        <v>1092572.865274564</v>
+        <v>1194729.361171609</v>
       </c>
       <c r="AE6" t="n">
-        <v>1494906.395181625</v>
+        <v>1634681.419694486</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34417548217909e-06</v>
+        <v>2.061624775718707e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.68359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1352234.626939793</v>
+        <v>1478669.719288626</v>
       </c>
     </row>
     <row r="7">
@@ -27672,28 +27672,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1053.226463912604</v>
+        <v>1155.212367609057</v>
       </c>
       <c r="AB7" t="n">
-        <v>1441.070912997472</v>
+        <v>1580.612525735486</v>
       </c>
       <c r="AC7" t="n">
-        <v>1303.537127616721</v>
+        <v>1429.761084682903</v>
       </c>
       <c r="AD7" t="n">
-        <v>1053226.463912603</v>
+        <v>1155212.367609057</v>
       </c>
       <c r="AE7" t="n">
-        <v>1441070.912997472</v>
+        <v>1580612.525735486</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.358493273728259e-06</v>
+        <v>2.083584641958412e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.41341145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1303537.127616721</v>
+        <v>1429761.084682903</v>
       </c>
     </row>
     <row r="8">
@@ -27778,28 +27778,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1048.369536115495</v>
+        <v>1150.355439811948</v>
       </c>
       <c r="AB8" t="n">
-        <v>1434.425450112936</v>
+        <v>1573.96706285095</v>
       </c>
       <c r="AC8" t="n">
-        <v>1297.52589838292</v>
+        <v>1423.749855449102</v>
       </c>
       <c r="AD8" t="n">
-        <v>1048369.536115495</v>
+        <v>1150355.439811948</v>
       </c>
       <c r="AE8" t="n">
-        <v>1434425.450112936</v>
+        <v>1573967.06285095</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.360720485747019e-06</v>
+        <v>2.087000621151255e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.37109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1297525.89838292</v>
+        <v>1423749.855449102</v>
       </c>
     </row>
     <row r="9">
@@ -27884,28 +27884,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1054.469346640749</v>
+        <v>1156.455250337203</v>
       </c>
       <c r="AB9" t="n">
-        <v>1442.771479978237</v>
+        <v>1582.313092716251</v>
       </c>
       <c r="AC9" t="n">
-        <v>1305.075394871603</v>
+        <v>1431.299351937785</v>
       </c>
       <c r="AD9" t="n">
-        <v>1054469.346640749</v>
+        <v>1156455.250337203</v>
       </c>
       <c r="AE9" t="n">
-        <v>1442771.479978237</v>
+        <v>1582313.092716251</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.360508370316661e-06</v>
+        <v>2.086675289799555e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.37760416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1305075.394871603</v>
+        <v>1431299.351937785</v>
       </c>
     </row>
   </sheetData>
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1516.223136591532</v>
+        <v>1638.830046686975</v>
       </c>
       <c r="AB2" t="n">
-        <v>2074.563386528388</v>
+        <v>2242.319569956095</v>
       </c>
       <c r="AC2" t="n">
-        <v>1876.569968586118</v>
+        <v>2028.315737314767</v>
       </c>
       <c r="AD2" t="n">
-        <v>1516223.136591533</v>
+        <v>1638830.046686975</v>
       </c>
       <c r="AE2" t="n">
-        <v>2074563.386528388</v>
+        <v>2242319.569956095</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.108637975016681e-06</v>
+        <v>1.732224967674243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.21354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1876569.968586118</v>
+        <v>2028315.737314767</v>
       </c>
     </row>
     <row r="3">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1142.950497003604</v>
+        <v>1250.306138264884</v>
       </c>
       <c r="AB3" t="n">
-        <v>1563.835293417553</v>
+        <v>1710.724017987864</v>
       </c>
       <c r="AC3" t="n">
-        <v>1414.585047870401</v>
+        <v>1547.454918727341</v>
       </c>
       <c r="AD3" t="n">
-        <v>1142950.497003604</v>
+        <v>1250306.138264884</v>
       </c>
       <c r="AE3" t="n">
-        <v>1563835.293417553</v>
+        <v>1710724.017987864</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295696633839387e-06</v>
+        <v>2.024500432284297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.56510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1414585.047870401</v>
+        <v>1547454.918727341</v>
       </c>
     </row>
     <row r="4">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1026.999818802022</v>
+        <v>1126.60194862719</v>
       </c>
       <c r="AB4" t="n">
-        <v>1405.186460119252</v>
+        <v>1541.466488281892</v>
       </c>
       <c r="AC4" t="n">
-        <v>1271.077436557053</v>
+        <v>1394.351090102072</v>
       </c>
       <c r="AD4" t="n">
-        <v>1026999.818802022</v>
+        <v>1126601.94862719</v>
       </c>
       <c r="AE4" t="n">
-        <v>1405186.460119252</v>
+        <v>1541466.488281892</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.360755745089747e-06</v>
+        <v>2.126154010298232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.24674479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1271077.436557054</v>
+        <v>1394351.090102072</v>
       </c>
     </row>
     <row r="5">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>956.4457539885269</v>
+        <v>1056.133135159715</v>
       </c>
       <c r="AB5" t="n">
-        <v>1308.651276015766</v>
+        <v>1445.047948831055</v>
       </c>
       <c r="AC5" t="n">
-        <v>1183.755434936423</v>
+        <v>1307.134600732153</v>
       </c>
       <c r="AD5" t="n">
-        <v>956445.7539885269</v>
+        <v>1056133.135159715</v>
       </c>
       <c r="AE5" t="n">
-        <v>1308651.276015766</v>
+        <v>1445047.948831056</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.391804191099615e-06</v>
+        <v>2.174666594746705e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.66080729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1183755.434936423</v>
+        <v>1307134.600732153</v>
       </c>
     </row>
     <row r="6">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>954.6385029909644</v>
+        <v>1054.325884162153</v>
       </c>
       <c r="AB6" t="n">
-        <v>1306.178515470615</v>
+        <v>1442.575188285904</v>
       </c>
       <c r="AC6" t="n">
-        <v>1181.518671187159</v>
+        <v>1304.897836982889</v>
       </c>
       <c r="AD6" t="n">
-        <v>954638.5029909645</v>
+        <v>1054325.884162153</v>
       </c>
       <c r="AE6" t="n">
-        <v>1306178.515470615</v>
+        <v>1442575.188285904</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.394546986683526e-06</v>
+        <v>2.17895215874392e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.60872395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1181518.671187159</v>
+        <v>1304897.836982889</v>
       </c>
     </row>
   </sheetData>
@@ -53131,28 +53131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>870.8161594461188</v>
+        <v>972.815494328404</v>
       </c>
       <c r="AB2" t="n">
-        <v>1191.48908705175</v>
+        <v>1331.049076930761</v>
       </c>
       <c r="AC2" t="n">
-        <v>1077.775040848967</v>
+        <v>1204.015621167601</v>
       </c>
       <c r="AD2" t="n">
-        <v>870816.1594461189</v>
+        <v>972815.4943284041</v>
       </c>
       <c r="AE2" t="n">
-        <v>1191489.08705175</v>
+        <v>1331049.076930761</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361356933268151e-06</v>
+        <v>2.218570902771359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.15755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1077775.040848967</v>
+        <v>1204015.621167601</v>
       </c>
     </row>
     <row r="3">
@@ -53237,28 +53237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>772.3431726345922</v>
+        <v>874.3424180083265</v>
       </c>
       <c r="AB3" t="n">
-        <v>1056.754002174648</v>
+        <v>1196.313869584111</v>
       </c>
       <c r="AC3" t="n">
-        <v>955.8988833706563</v>
+        <v>1082.139352908064</v>
       </c>
       <c r="AD3" t="n">
-        <v>772343.1726345922</v>
+        <v>874342.4180083264</v>
       </c>
       <c r="AE3" t="n">
-        <v>1056754.002174648</v>
+        <v>1196313.869584111</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.436837410235964e-06</v>
+        <v>2.341579634600477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.67643229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>955898.8833706563</v>
+        <v>1082139.352908064</v>
       </c>
     </row>
   </sheetData>
@@ -53534,28 +53534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3541.230999896176</v>
+        <v>3731.895817889121</v>
       </c>
       <c r="AB2" t="n">
-        <v>4845.268482143916</v>
+        <v>5106.144497659991</v>
       </c>
       <c r="AC2" t="n">
-        <v>4382.842858584943</v>
+        <v>4618.821233321942</v>
       </c>
       <c r="AD2" t="n">
-        <v>3541230.999896177</v>
+        <v>3731895.817889121</v>
       </c>
       <c r="AE2" t="n">
-        <v>4845268.482143916</v>
+        <v>5106144.497659991</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.295148774354646e-07</v>
+        <v>1.077771276716198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.9453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4382842.858584943</v>
+        <v>4618821.233321941</v>
       </c>
     </row>
     <row r="3">
@@ -53640,28 +53640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2093.468764827224</v>
+        <v>2234.350408984844</v>
       </c>
       <c r="AB3" t="n">
-        <v>2864.376321360258</v>
+        <v>3057.136802156379</v>
       </c>
       <c r="AC3" t="n">
-        <v>2591.004265427051</v>
+        <v>2765.367956476908</v>
       </c>
       <c r="AD3" t="n">
-        <v>2093468.764827224</v>
+        <v>2234350.408984844</v>
       </c>
       <c r="AE3" t="n">
-        <v>2864376.321360258</v>
+        <v>3057136.802156379</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.005150965710554e-06</v>
+        <v>1.484990742635291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.89127604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2591004.265427051</v>
+        <v>2765367.956476908</v>
       </c>
     </row>
     <row r="4">
@@ -53746,28 +53746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1790.038811977456</v>
+        <v>1914.411405711203</v>
       </c>
       <c r="AB4" t="n">
-        <v>2449.210073486451</v>
+        <v>2619.382143164551</v>
       </c>
       <c r="AC4" t="n">
-        <v>2215.460901560831</v>
+        <v>2369.391987746852</v>
       </c>
       <c r="AD4" t="n">
-        <v>1790038.811977456</v>
+        <v>1914411.405711203</v>
       </c>
       <c r="AE4" t="n">
-        <v>2449210.073486451</v>
+        <v>2619382.14316455</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.105400175379737e-06</v>
+        <v>1.633097000693754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.99739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2215460.901560831</v>
+        <v>2369391.987746852</v>
       </c>
     </row>
     <row r="5">
@@ -53852,28 +53852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1657.066318128693</v>
+        <v>1773.227057077789</v>
       </c>
       <c r="AB5" t="n">
-        <v>2267.271241070169</v>
+        <v>2426.207488750445</v>
       </c>
       <c r="AC5" t="n">
-        <v>2050.886055957604</v>
+        <v>2194.6536512277</v>
       </c>
       <c r="AD5" t="n">
-        <v>1657066.318128692</v>
+        <v>1773227.057077789</v>
       </c>
       <c r="AE5" t="n">
-        <v>2267271.241070169</v>
+        <v>2426207.488750446</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.157592789451119e-06</v>
+        <v>1.710205366873503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.69205729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2050886.055957604</v>
+        <v>2194653.6512277</v>
       </c>
     </row>
     <row r="6">
@@ -53958,28 +53958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1571.913775638543</v>
+        <v>1687.989173733068</v>
       </c>
       <c r="AB6" t="n">
-        <v>2150.761775770104</v>
+        <v>2309.581256328183</v>
       </c>
       <c r="AC6" t="n">
-        <v>1945.496090503716</v>
+        <v>2089.158062741873</v>
       </c>
       <c r="AD6" t="n">
-        <v>1571913.775638543</v>
+        <v>1687989.173733068</v>
       </c>
       <c r="AE6" t="n">
-        <v>2150761.775770104</v>
+        <v>2309581.256328183</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.190188554088151e-06</v>
+        <v>1.758361723865007e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.93359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1945496.090503715</v>
+        <v>2089158.062741873</v>
       </c>
     </row>
     <row r="7">
@@ -54064,28 +54064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1522.104553192291</v>
+        <v>1638.009359086224</v>
       </c>
       <c r="AB7" t="n">
-        <v>2082.610600191334</v>
+        <v>2241.196668974566</v>
       </c>
       <c r="AC7" t="n">
-        <v>1883.849167471408</v>
+        <v>2027.300004426914</v>
       </c>
       <c r="AD7" t="n">
-        <v>1522104.553192291</v>
+        <v>1638009.359086224</v>
       </c>
       <c r="AE7" t="n">
-        <v>2082610.600191334</v>
+        <v>2241196.668974566</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.211164076347028e-06</v>
+        <v>1.789350557820265e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.46809895833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1883849.167471408</v>
+        <v>2027300.004426914</v>
       </c>
     </row>
     <row r="8">
@@ -54170,28 +54170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1478.752266898229</v>
+        <v>1586.530558862084</v>
       </c>
       <c r="AB8" t="n">
-        <v>2023.294089515909</v>
+        <v>2170.761103423517</v>
       </c>
       <c r="AC8" t="n">
-        <v>1830.193741323601</v>
+        <v>1963.58671039512</v>
       </c>
       <c r="AD8" t="n">
-        <v>1478752.266898229</v>
+        <v>1586530.558862084</v>
       </c>
       <c r="AE8" t="n">
-        <v>2023294.08951591</v>
+        <v>2170761.103423517</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.227708150241352e-06</v>
+        <v>1.813792455024412e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.11002604166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1830193.741323601</v>
+        <v>1963586.71039512</v>
       </c>
     </row>
     <row r="9">
@@ -54276,28 +54276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1437.600259018378</v>
+        <v>1553.590316258331</v>
       </c>
       <c r="AB9" t="n">
-        <v>1966.988096836241</v>
+        <v>2125.690810272122</v>
       </c>
       <c r="AC9" t="n">
-        <v>1779.261513559322</v>
+        <v>1922.81786276554</v>
       </c>
       <c r="AD9" t="n">
-        <v>1437600.259018378</v>
+        <v>1553590.316258331</v>
       </c>
       <c r="AE9" t="n">
-        <v>1966988.096836241</v>
+        <v>2125690.810272122</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.239722299140802e-06</v>
+        <v>1.83154192799409e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.85611979166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1779261.513559322</v>
+        <v>1922817.86276554</v>
       </c>
     </row>
     <row r="10">
@@ -54382,28 +54382,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1407.503150259002</v>
+        <v>1515.366693568878</v>
       </c>
       <c r="AB10" t="n">
-        <v>1925.807904840936</v>
+        <v>2073.391563401193</v>
       </c>
       <c r="AC10" t="n">
-        <v>1742.011501291287</v>
+        <v>1875.509982613519</v>
       </c>
       <c r="AD10" t="n">
-        <v>1407503.150259003</v>
+        <v>1515366.693568878</v>
       </c>
       <c r="AE10" t="n">
-        <v>1925807.904840936</v>
+        <v>2073391.563401193</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.249668438803462e-06</v>
+        <v>1.84623616381325e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1742011.501291287</v>
+        <v>1875509.982613519</v>
       </c>
     </row>
     <row r="11">
@@ -54488,28 +54488,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1382.640940939175</v>
+        <v>1490.504484249051</v>
       </c>
       <c r="AB11" t="n">
-        <v>1891.790333206284</v>
+        <v>2039.373991766541</v>
       </c>
       <c r="AC11" t="n">
-        <v>1711.240518949484</v>
+        <v>1844.739000271716</v>
       </c>
       <c r="AD11" t="n">
-        <v>1382640.940939175</v>
+        <v>1490504.484249051</v>
       </c>
       <c r="AE11" t="n">
-        <v>1891790.333206284</v>
+        <v>2039373.991766541</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.256364849665451e-06</v>
+        <v>1.856129312681595e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.51432291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1711240.518949484</v>
+        <v>1844739.000271716</v>
       </c>
     </row>
     <row r="12">
@@ -54594,28 +54594,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1358.471836978831</v>
+        <v>1466.164788088114</v>
       </c>
       <c r="AB12" t="n">
-        <v>1858.721098902128</v>
+        <v>2006.071345687538</v>
       </c>
       <c r="AC12" t="n">
-        <v>1681.327365954355</v>
+        <v>1814.614711993936</v>
       </c>
       <c r="AD12" t="n">
-        <v>1358471.836978831</v>
+        <v>1466164.788088114</v>
       </c>
       <c r="AE12" t="n">
-        <v>1858721.098902128</v>
+        <v>2006071.345687538</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.263061260527439e-06</v>
+        <v>1.866022461549941e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.37760416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1681327.365954355</v>
+        <v>1814614.711993936</v>
       </c>
     </row>
     <row r="13">
@@ -54700,28 +54700,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1334.233236547633</v>
+        <v>1441.926187656916</v>
       </c>
       <c r="AB13" t="n">
-        <v>1825.556776460581</v>
+        <v>1972.907023245991</v>
       </c>
       <c r="AC13" t="n">
-        <v>1651.32819990021</v>
+        <v>1784.615545939791</v>
       </c>
       <c r="AD13" t="n">
-        <v>1334233.236547633</v>
+        <v>1441926.187656916</v>
       </c>
       <c r="AE13" t="n">
-        <v>1825556.776460581</v>
+        <v>1972907.023245991</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.268378998564901e-06</v>
+        <v>1.873878785651274e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.2734375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1651328.19990021</v>
+        <v>1784615.545939791</v>
       </c>
     </row>
     <row r="14">
@@ -54806,28 +54806,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1315.953997044118</v>
+        <v>1423.646948153401</v>
       </c>
       <c r="AB14" t="n">
-        <v>1800.54631454874</v>
+        <v>1947.89656133415</v>
       </c>
       <c r="AC14" t="n">
-        <v>1628.704701370831</v>
+        <v>1761.992047410412</v>
       </c>
       <c r="AD14" t="n">
-        <v>1315953.997044118</v>
+        <v>1423646.948153401</v>
       </c>
       <c r="AE14" t="n">
-        <v>1800546.31454874</v>
+        <v>1947896.56133415</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.272022633886865e-06</v>
+        <v>1.87926182253552e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.20182291666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1628704.701370831</v>
+        <v>1761992.047410412</v>
       </c>
     </row>
     <row r="15">
@@ -54912,28 +54912,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1295.256757485479</v>
+        <v>1402.949708594763</v>
       </c>
       <c r="AB15" t="n">
-        <v>1772.227438286844</v>
+        <v>1919.577685072254</v>
       </c>
       <c r="AC15" t="n">
-        <v>1603.088538913578</v>
+        <v>1736.375884953159</v>
       </c>
       <c r="AD15" t="n">
-        <v>1295256.757485479</v>
+        <v>1402949.708594763</v>
       </c>
       <c r="AE15" t="n">
-        <v>1772227.438286844</v>
+        <v>1919577.685072254</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.275764745839153e-06</v>
+        <v>1.884790346903125e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.126953125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1603088.538913578</v>
+        <v>1736375.884953159</v>
       </c>
     </row>
     <row r="16">
@@ -55018,28 +55018,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1294.431252871458</v>
+        <v>1402.124203980742</v>
       </c>
       <c r="AB16" t="n">
-        <v>1771.097946455247</v>
+        <v>1918.448193240658</v>
       </c>
       <c r="AC16" t="n">
-        <v>1602.066844197138</v>
+        <v>1735.354190236719</v>
       </c>
       <c r="AD16" t="n">
-        <v>1294431.252871458</v>
+        <v>1402124.203980742</v>
       </c>
       <c r="AE16" t="n">
-        <v>1771097.946455247</v>
+        <v>1918448.193240658</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.276158652360446e-06</v>
+        <v>1.885372296836557e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.1171875</v>
       </c>
       <c r="AH16" t="n">
-        <v>1602066.844197138</v>
+        <v>1735354.190236719</v>
       </c>
     </row>
     <row r="17">
@@ -55124,28 +55124,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1297.442130751203</v>
+        <v>1405.135081860487</v>
       </c>
       <c r="AB17" t="n">
-        <v>1775.217562400872</v>
+        <v>1922.567809186283</v>
       </c>
       <c r="AC17" t="n">
-        <v>1605.79328977883</v>
+        <v>1739.08063581841</v>
       </c>
       <c r="AD17" t="n">
-        <v>1297442.130751204</v>
+        <v>1405135.081860487</v>
       </c>
       <c r="AE17" t="n">
-        <v>1775217.562400872</v>
+        <v>1922567.809186283</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.27655255888174e-06</v>
+        <v>1.885954246769989e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.11067708333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1605793.28977883</v>
+        <v>1739080.63581841</v>
       </c>
     </row>
     <row r="18">
@@ -55230,28 +55230,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1303.327012764208</v>
+        <v>1411.019963873491</v>
       </c>
       <c r="AB18" t="n">
-        <v>1783.269517593735</v>
+        <v>1930.619764379145</v>
       </c>
       <c r="AC18" t="n">
-        <v>1613.076777669076</v>
+        <v>1746.364123708657</v>
       </c>
       <c r="AD18" t="n">
-        <v>1303327.012764208</v>
+        <v>1411019.963873491</v>
       </c>
       <c r="AE18" t="n">
-        <v>1783269.517593735</v>
+        <v>1930619.764379145</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.276454082251417e-06</v>
+        <v>1.885808759286631e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.11393229166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1613076.777669076</v>
+        <v>1746364.123708657</v>
       </c>
     </row>
   </sheetData>
@@ -55527,28 +55527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5099.62748623034</v>
+        <v>5329.739341220275</v>
       </c>
       <c r="AB2" t="n">
-        <v>6977.535306347173</v>
+        <v>7292.384498162983</v>
       </c>
       <c r="AC2" t="n">
-        <v>6311.609129741443</v>
+        <v>6596.409556583958</v>
       </c>
       <c r="AD2" t="n">
-        <v>5099627.48623034</v>
+        <v>5329739.341220275</v>
       </c>
       <c r="AE2" t="n">
-        <v>6977535.306347173</v>
+        <v>7292384.498162983</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.965113194248579e-07</v>
+        <v>8.662352555406412e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.78385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>6311609.129741443</v>
+        <v>6596409.556583958</v>
       </c>
     </row>
     <row r="3">
@@ -55633,28 +55633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2622.096736684884</v>
+        <v>2775.362494762441</v>
       </c>
       <c r="AB3" t="n">
-        <v>3587.668433876291</v>
+        <v>3797.373405686051</v>
       </c>
       <c r="AC3" t="n">
-        <v>3245.266393871274</v>
+        <v>3434.957417494279</v>
       </c>
       <c r="AD3" t="n">
-        <v>2622096.736684884</v>
+        <v>2775362.494762441</v>
       </c>
       <c r="AE3" t="n">
-        <v>3587668.433876291</v>
+        <v>3797373.405686051</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.987525781534884e-07</v>
+        <v>1.305140646711011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.37174479166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3245266.393871274</v>
+        <v>3434957.417494279</v>
       </c>
     </row>
     <row r="4">
@@ -55739,28 +55739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2170.569404053786</v>
+        <v>2306.777196449931</v>
       </c>
       <c r="AB4" t="n">
-        <v>2969.868817390182</v>
+        <v>3156.234328010471</v>
       </c>
       <c r="AC4" t="n">
-        <v>2686.428705695527</v>
+        <v>2855.007753547734</v>
       </c>
       <c r="AD4" t="n">
-        <v>2170569.404053786</v>
+        <v>2306777.196449931</v>
       </c>
       <c r="AE4" t="n">
-        <v>2969868.817390182</v>
+        <v>3156234.328010471</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.013006416617938e-06</v>
+        <v>1.471056530845743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.49153645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2686428.705695527</v>
+        <v>2855007.753547734</v>
       </c>
     </row>
     <row r="5">
@@ -55845,28 +55845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1976.839635650656</v>
+        <v>2104.689037406684</v>
       </c>
       <c r="AB5" t="n">
-        <v>2704.799201506837</v>
+        <v>2879.728393306967</v>
       </c>
       <c r="AC5" t="n">
-        <v>2446.656961924547</v>
+        <v>2604.891157173934</v>
       </c>
       <c r="AD5" t="n">
-        <v>1976839.635650656</v>
+        <v>2104689.037406684</v>
       </c>
       <c r="AE5" t="n">
-        <v>2704799.201506837</v>
+        <v>2879728.393306967</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.073075087504978e-06</v>
+        <v>1.558286393517908e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.7890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2446656.961924546</v>
+        <v>2604891.157173934</v>
       </c>
     </row>
     <row r="6">
@@ -55951,28 +55951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1866.892670770241</v>
+        <v>1994.656731671697</v>
       </c>
       <c r="AB6" t="n">
-        <v>2554.364913639695</v>
+        <v>2729.177338317626</v>
       </c>
       <c r="AC6" t="n">
-        <v>2310.579911355595</v>
+        <v>2468.708483573044</v>
       </c>
       <c r="AD6" t="n">
-        <v>1866892.670770241</v>
+        <v>1994656.731671697</v>
       </c>
       <c r="AE6" t="n">
-        <v>2554364.913639695</v>
+        <v>2729177.338317627</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.110938278158894e-06</v>
+        <v>1.613270145818372e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.80598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2310579.911355595</v>
+        <v>2468708.483573044</v>
       </c>
     </row>
     <row r="7">
@@ -56057,28 +56057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1799.995249611112</v>
+        <v>1919.230417180412</v>
       </c>
       <c r="AB7" t="n">
-        <v>2462.832910703846</v>
+        <v>2625.975727256504</v>
       </c>
       <c r="AC7" t="n">
-        <v>2227.78359431397</v>
+        <v>2375.356289427224</v>
       </c>
       <c r="AD7" t="n">
-        <v>1799995.249611112</v>
+        <v>1919230.417180412</v>
       </c>
       <c r="AE7" t="n">
-        <v>2462832.910703846</v>
+        <v>2625975.727256504</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.136370195690848e-06</v>
+        <v>1.650201588466302e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.18424479166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2227783.59431397</v>
+        <v>2375356.289427224</v>
       </c>
     </row>
     <row r="8">
@@ -56163,28 +56163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1745.766920179581</v>
+        <v>1865.087339094903</v>
       </c>
       <c r="AB8" t="n">
-        <v>2388.635317990578</v>
+        <v>2551.894779195886</v>
       </c>
       <c r="AC8" t="n">
-        <v>2160.667315712281</v>
+        <v>2308.345523076247</v>
       </c>
       <c r="AD8" t="n">
-        <v>1745766.920179581</v>
+        <v>1865087.339094903</v>
       </c>
       <c r="AE8" t="n">
-        <v>2388635.317990578</v>
+        <v>2551894.779195886</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.154115600834413e-06</v>
+        <v>1.675970915985567e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.76432291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2160667.315712281</v>
+        <v>2308345.523076247</v>
       </c>
     </row>
     <row r="9">
@@ -56269,28 +56269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1705.370910117256</v>
+        <v>1824.520736831985</v>
       </c>
       <c r="AB9" t="n">
-        <v>2333.363714877117</v>
+        <v>2496.389764307578</v>
       </c>
       <c r="AC9" t="n">
-        <v>2110.670756825787</v>
+        <v>2258.137828907101</v>
       </c>
       <c r="AD9" t="n">
-        <v>1705370.910117256</v>
+        <v>1824520.736831984</v>
       </c>
       <c r="AE9" t="n">
-        <v>2333363.714877117</v>
+        <v>2496389.764307578</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.169109044752505e-06</v>
+        <v>1.697743930680989e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.42252604166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2110670.756825787</v>
+        <v>2258137.828907101</v>
       </c>
     </row>
     <row r="10">
@@ -56375,28 +56375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1675.034849723462</v>
+        <v>1785.826375306627</v>
       </c>
       <c r="AB10" t="n">
-        <v>2291.856578713799</v>
+        <v>2443.446431793833</v>
       </c>
       <c r="AC10" t="n">
-        <v>2073.125003482264</v>
+        <v>2210.247333742035</v>
       </c>
       <c r="AD10" t="n">
-        <v>1675034.849723462</v>
+        <v>1785826.375306627</v>
       </c>
       <c r="AE10" t="n">
-        <v>2291856.578713799</v>
+        <v>2443446.431793833</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.179357727937024e-06</v>
+        <v>1.712626750852543e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.19466145833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2073125.003482264</v>
+        <v>2210247.333742035</v>
       </c>
     </row>
     <row r="11">
@@ -56481,28 +56481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1637.748962366927</v>
+        <v>1756.984040427677</v>
       </c>
       <c r="AB11" t="n">
-        <v>2240.840382695332</v>
+        <v>2403.983076778442</v>
       </c>
       <c r="AC11" t="n">
-        <v>2026.977721610119</v>
+        <v>2174.550305942146</v>
       </c>
       <c r="AD11" t="n">
-        <v>1637748.962366927</v>
+        <v>1756984.040427677</v>
       </c>
       <c r="AE11" t="n">
-        <v>2240840.382695332</v>
+        <v>2403983.076778442</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.188942144618842e-06</v>
+        <v>1.726544943790756e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.98307291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2026977.721610119</v>
+        <v>2174550.305942146</v>
       </c>
     </row>
     <row r="12">
@@ -56587,28 +56587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1617.109271707598</v>
+        <v>1736.344349768348</v>
       </c>
       <c r="AB12" t="n">
-        <v>2212.60024737635</v>
+        <v>2375.742941459459</v>
       </c>
       <c r="AC12" t="n">
-        <v>2001.432785170701</v>
+        <v>2149.005369502728</v>
       </c>
       <c r="AD12" t="n">
-        <v>1617109.271707598</v>
+        <v>1736344.349768348</v>
       </c>
       <c r="AE12" t="n">
-        <v>2212600.24737635</v>
+        <v>2375742.941459459</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.196249076148545e-06</v>
+        <v>1.737155843357512e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.82356770833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2001432.785170701</v>
+        <v>2149005.369502728</v>
       </c>
     </row>
     <row r="13">
@@ -56693,28 +56693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1593.651209714658</v>
+        <v>1704.527986643844</v>
       </c>
       <c r="AB13" t="n">
-        <v>2180.503892060954</v>
+        <v>2332.210389793637</v>
       </c>
       <c r="AC13" t="n">
-        <v>1972.399660959089</v>
+        <v>2109.627503469572</v>
       </c>
       <c r="AD13" t="n">
-        <v>1593651.209714658</v>
+        <v>1704527.986643844</v>
       </c>
       <c r="AE13" t="n">
-        <v>2180503.892060954</v>
+        <v>2332210.389793637</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.202227474672848e-06</v>
+        <v>1.745837488457585e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.693359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1972399.660959089</v>
+        <v>2109627.503469572</v>
       </c>
     </row>
     <row r="14">
@@ -56799,28 +56799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1575.223702490468</v>
+        <v>1686.100479419654</v>
       </c>
       <c r="AB14" t="n">
-        <v>2155.290563712574</v>
+        <v>2306.997061445258</v>
       </c>
       <c r="AC14" t="n">
-        <v>1949.59265728115</v>
+        <v>2086.820499791633</v>
       </c>
       <c r="AD14" t="n">
-        <v>1575223.702490468</v>
+        <v>1686100.479419654</v>
       </c>
       <c r="AE14" t="n">
-        <v>2155290.563712574</v>
+        <v>2306997.061445258</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.207636501909122e-06</v>
+        <v>1.753692310214795e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.57942708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1949592.65728115</v>
+        <v>2086820.499791633</v>
       </c>
     </row>
     <row r="15">
@@ -56905,28 +56905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1556.702031463017</v>
+        <v>1667.408216191611</v>
       </c>
       <c r="AB15" t="n">
-        <v>2129.94839629436</v>
+        <v>2281.421482252196</v>
       </c>
       <c r="AC15" t="n">
-        <v>1926.669110753375</v>
+        <v>2063.685817981207</v>
       </c>
       <c r="AD15" t="n">
-        <v>1556702.031463017</v>
+        <v>1667408.216191611</v>
       </c>
       <c r="AE15" t="n">
-        <v>2129948.39629436</v>
+        <v>2281421.482252196</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.212476157857367e-06</v>
+        <v>1.76072030862914e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.478515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1926669.110753375</v>
+        <v>2063685.817981207</v>
       </c>
     </row>
     <row r="16">
@@ -57011,28 +57011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1540.599853939534</v>
+        <v>1651.306038668128</v>
       </c>
       <c r="AB16" t="n">
-        <v>2107.916686628793</v>
+        <v>2259.38977258663</v>
       </c>
       <c r="AC16" t="n">
-        <v>1906.740076536592</v>
+        <v>2043.756783764423</v>
       </c>
       <c r="AD16" t="n">
-        <v>1540599.853939534</v>
+        <v>1651306.038668128</v>
       </c>
       <c r="AE16" t="n">
-        <v>2107916.686628793</v>
+        <v>2259389.77258663</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.215797490370868e-06</v>
+        <v>1.765543444795847e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.40690104166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1906740.076536592</v>
+        <v>2043756.783764423</v>
       </c>
     </row>
     <row r="17">
@@ -57117,28 +57117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1526.051187393651</v>
+        <v>1636.757372122245</v>
       </c>
       <c r="AB17" t="n">
-        <v>2088.010559218847</v>
+        <v>2239.483645176684</v>
       </c>
       <c r="AC17" t="n">
-        <v>1888.733761988226</v>
+        <v>2025.750469216058</v>
       </c>
       <c r="AD17" t="n">
-        <v>1526051.187393651</v>
+        <v>1636757.372122245</v>
       </c>
       <c r="AE17" t="n">
-        <v>2088010.559218848</v>
+        <v>2239483.645176684</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.219593298957727e-06</v>
+        <v>1.771055600414941e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.32877604166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1888733.761988226</v>
+        <v>2025750.469216058</v>
       </c>
     </row>
     <row r="18">
@@ -57223,28 +57223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1508.039685368704</v>
+        <v>1618.745870097298</v>
       </c>
       <c r="AB18" t="n">
-        <v>2063.366427536926</v>
+        <v>2214.839513494764</v>
       </c>
       <c r="AC18" t="n">
-        <v>1866.441631645771</v>
+        <v>2003.458338873603</v>
       </c>
       <c r="AD18" t="n">
-        <v>1508039.685368704</v>
+        <v>1618745.870097298</v>
       </c>
       <c r="AE18" t="n">
-        <v>2063366.427536927</v>
+        <v>2214839.513494764</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.222724841041886e-06</v>
+        <v>1.775603128800694e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.263671875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1866441.631645771</v>
+        <v>2003458.338873603</v>
       </c>
     </row>
     <row r="19">
@@ -57329,28 +57329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1488.297976007392</v>
+        <v>1599.004160735986</v>
       </c>
       <c r="AB19" t="n">
-        <v>2036.354949846031</v>
+        <v>2187.828035803867</v>
       </c>
       <c r="AC19" t="n">
-        <v>1842.008091474847</v>
+        <v>1979.024798702679</v>
       </c>
       <c r="AD19" t="n">
-        <v>1488297.976007392</v>
+        <v>1599004.160735986</v>
       </c>
       <c r="AE19" t="n">
-        <v>2036354.949846031</v>
+        <v>2187828.035803867</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.225192116623344e-06</v>
+        <v>1.779186029953105e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.21158854166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1842008.091474847</v>
+        <v>1979024.798702679</v>
       </c>
     </row>
     <row r="20">
@@ -57435,28 +57435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1477.466482920859</v>
+        <v>1588.172667649453</v>
       </c>
       <c r="AB20" t="n">
-        <v>2021.534823153286</v>
+        <v>2173.007909111122</v>
       </c>
       <c r="AC20" t="n">
-        <v>1828.60237687348</v>
+        <v>1965.619084101312</v>
       </c>
       <c r="AD20" t="n">
-        <v>1477466.482920859</v>
+        <v>1588172.667649453</v>
       </c>
       <c r="AE20" t="n">
-        <v>2021534.823153286</v>
+        <v>2173007.909111123</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.226995125702101e-06</v>
+        <v>1.781804303872174e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.17578125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1828602.37687348</v>
+        <v>1965619.084101312</v>
       </c>
     </row>
     <row r="21">
@@ -57541,28 +57541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1461.749593485296</v>
+        <v>1572.455778213891</v>
       </c>
       <c r="AB21" t="n">
-        <v>2000.030281647325</v>
+        <v>2151.50336760516</v>
       </c>
       <c r="AC21" t="n">
-        <v>1809.150198627033</v>
+        <v>1946.166905854865</v>
       </c>
       <c r="AD21" t="n">
-        <v>1461749.593485296</v>
+        <v>1572455.778213891</v>
       </c>
       <c r="AE21" t="n">
-        <v>2000030.281647325</v>
+        <v>2151503.36760516</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.229557296498231e-06</v>
+        <v>1.785525008915063e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.12369791666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1809150.198627033</v>
+        <v>1946166.905854865</v>
       </c>
     </row>
     <row r="22">
@@ -57647,28 +57647,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1448.846033152682</v>
+        <v>1551.193916749713</v>
       </c>
       <c r="AB22" t="n">
-        <v>1982.375061135336</v>
+        <v>2122.411950742746</v>
       </c>
       <c r="AC22" t="n">
-        <v>1793.179967581451</v>
+        <v>1919.851932987739</v>
       </c>
       <c r="AD22" t="n">
-        <v>1448846.033152682</v>
+        <v>1551193.916749713</v>
       </c>
       <c r="AE22" t="n">
-        <v>1982375.061135336</v>
+        <v>2122411.950742746</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.232024572079689e-06</v>
+        <v>1.789107910067474e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.07161458333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1793179.967581451</v>
+        <v>1919851.93298774</v>
       </c>
     </row>
     <row r="23">
@@ -57753,28 +57753,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1451.184095258892</v>
+        <v>1561.890279987486</v>
       </c>
       <c r="AB23" t="n">
-        <v>1985.574100857073</v>
+        <v>2137.047186814909</v>
       </c>
       <c r="AC23" t="n">
-        <v>1796.073695442026</v>
+        <v>1933.090402669858</v>
       </c>
       <c r="AD23" t="n">
-        <v>1451184.095258892</v>
+        <v>1561890.279987486</v>
       </c>
       <c r="AE23" t="n">
-        <v>1985574.100857073</v>
+        <v>2137047.186814909</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.231360305576989e-06</v>
+        <v>1.788143282834133e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.087890625</v>
       </c>
       <c r="AH23" t="n">
-        <v>1796073.695442026</v>
+        <v>1933090.402669858</v>
       </c>
     </row>
     <row r="24">
@@ -57859,28 +57859,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1452.376300969764</v>
+        <v>1554.724184566795</v>
       </c>
       <c r="AB24" t="n">
-        <v>1987.205329307091</v>
+        <v>2127.242218914501</v>
       </c>
       <c r="AC24" t="n">
-        <v>1797.549241738218</v>
+        <v>1924.221207144506</v>
       </c>
       <c r="AD24" t="n">
-        <v>1452376.300969764</v>
+        <v>1554724.184566794</v>
       </c>
       <c r="AE24" t="n">
-        <v>1987205.329307091</v>
+        <v>2127242.218914501</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.232593943367718e-06</v>
+        <v>1.789934733410338e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.06184895833333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1797549.241738218</v>
+        <v>1924221.207144506</v>
       </c>
     </row>
   </sheetData>
@@ -58156,28 +58156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>684.3872366200324</v>
+        <v>790.9515144648059</v>
       </c>
       <c r="AB2" t="n">
-        <v>936.4088101774913</v>
+        <v>1082.214756408849</v>
       </c>
       <c r="AC2" t="n">
-        <v>847.0392675921703</v>
+        <v>978.9296989551377</v>
       </c>
       <c r="AD2" t="n">
-        <v>684387.2366200323</v>
+        <v>790951.5144648058</v>
       </c>
       <c r="AE2" t="n">
-        <v>936408.8101774913</v>
+        <v>1082214.756408849</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421515801974851e-06</v>
+        <v>2.369582149342693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.92317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>847039.2675921703</v>
+        <v>978929.6989551377</v>
       </c>
     </row>
     <row r="3">
@@ -58262,28 +58262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>694.9719347248348</v>
+        <v>801.5362125696081</v>
       </c>
       <c r="AB3" t="n">
-        <v>950.8912610884056</v>
+        <v>1096.697207319763</v>
       </c>
       <c r="AC3" t="n">
-        <v>860.1395337143944</v>
+        <v>992.029965077362</v>
       </c>
       <c r="AD3" t="n">
-        <v>694971.9347248347</v>
+        <v>801536.2125696081</v>
       </c>
       <c r="AE3" t="n">
-        <v>950891.2610884056</v>
+        <v>1096697.207319763</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421515801974851e-06</v>
+        <v>2.369582149342693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.92317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>860139.5337143943</v>
+        <v>992029.965077362</v>
       </c>
     </row>
   </sheetData>
@@ -58559,28 +58559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2173.077553456603</v>
+        <v>2315.958039675271</v>
       </c>
       <c r="AB2" t="n">
-        <v>2973.300578054858</v>
+        <v>3168.795962741598</v>
       </c>
       <c r="AC2" t="n">
-        <v>2689.532943938873</v>
+        <v>2866.370523490487</v>
       </c>
       <c r="AD2" t="n">
-        <v>2173077.553456603</v>
+        <v>2315958.039675271</v>
       </c>
       <c r="AE2" t="n">
-        <v>2973300.578054858</v>
+        <v>3168795.962741598</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.398749463898601e-07</v>
+        <v>1.43040190450119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.19791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2689532.943938873</v>
+        <v>2866370.523490487</v>
       </c>
     </row>
     <row r="3">
@@ -58665,28 +58665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1505.59422149547</v>
+        <v>1624.561743932117</v>
       </c>
       <c r="AB3" t="n">
-        <v>2060.020435979317</v>
+        <v>2222.797048653807</v>
       </c>
       <c r="AC3" t="n">
-        <v>1863.414976826291</v>
+        <v>2010.656418045538</v>
       </c>
       <c r="AD3" t="n">
-        <v>1505594.22149547</v>
+        <v>1624561.743932117</v>
       </c>
       <c r="AE3" t="n">
-        <v>2060020.435979317</v>
+        <v>2222797.048653807</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167710750140544e-06</v>
+        <v>1.777146722894673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.13411458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1863414.976826291</v>
+        <v>2010656.418045538</v>
       </c>
     </row>
     <row r="4">
@@ -58771,28 +58771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1334.212146995563</v>
+        <v>1445.237128456394</v>
       </c>
       <c r="AB4" t="n">
-        <v>1825.527920805035</v>
+        <v>1977.437198516235</v>
       </c>
       <c r="AC4" t="n">
-        <v>1651.30209818793</v>
+        <v>1788.713367640384</v>
       </c>
       <c r="AD4" t="n">
-        <v>1334212.146995564</v>
+        <v>1445237.128456393</v>
       </c>
       <c r="AE4" t="n">
-        <v>1825527.920805035</v>
+        <v>1977437.198516235</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.246721698597202e-06</v>
+        <v>1.897394008539386e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.28841145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1651302.09818793</v>
+        <v>1788713.367640384</v>
       </c>
     </row>
     <row r="5">
@@ -58877,28 +58877,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1247.891253080166</v>
+        <v>1358.830893686424</v>
       </c>
       <c r="AB5" t="n">
-        <v>1707.419865540918</v>
+        <v>1859.212376129921</v>
       </c>
       <c r="AC5" t="n">
-        <v>1544.466109952524</v>
+        <v>1681.771756373039</v>
       </c>
       <c r="AD5" t="n">
-        <v>1247891.253080166</v>
+        <v>1358830.893686424</v>
       </c>
       <c r="AE5" t="n">
-        <v>1707419.865540918</v>
+        <v>1859212.376129921</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.287063267518195e-06</v>
+        <v>1.958790109410893e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.43229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1544466.109952524</v>
+        <v>1681771.756373039</v>
       </c>
     </row>
     <row r="6">
@@ -58983,28 +58983,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1183.120133481719</v>
+        <v>1294.145025433998</v>
       </c>
       <c r="AB6" t="n">
-        <v>1618.797162206199</v>
+        <v>1770.706317447851</v>
       </c>
       <c r="AC6" t="n">
-        <v>1464.301433041325</v>
+        <v>1601.712591712553</v>
       </c>
       <c r="AD6" t="n">
-        <v>1183120.133481719</v>
+        <v>1294145.025433998</v>
       </c>
       <c r="AE6" t="n">
-        <v>1618797.162206199</v>
+        <v>1770706.317447851</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.31298220299075e-06</v>
+        <v>1.998236308934555e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1464301.433041325</v>
+        <v>1601712.591712553</v>
       </c>
     </row>
     <row r="7">
@@ -59089,28 +59089,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1138.406396570397</v>
+        <v>1241.659429256003</v>
       </c>
       <c r="AB7" t="n">
-        <v>1557.617854733276</v>
+        <v>1698.893209256035</v>
       </c>
       <c r="AC7" t="n">
-        <v>1408.960992807921</v>
+        <v>1536.753225776233</v>
       </c>
       <c r="AD7" t="n">
-        <v>1138406.396570397</v>
+        <v>1241659.429256003</v>
       </c>
       <c r="AE7" t="n">
-        <v>1557617.854733276</v>
+        <v>1698893.209256035</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.329913120517177e-06</v>
+        <v>2.02400358442985e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.57942708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1408960.992807921</v>
+        <v>1536753.225776233</v>
       </c>
     </row>
     <row r="8">
@@ -59195,28 +59195,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1100.736530273393</v>
+        <v>1203.818970758407</v>
       </c>
       <c r="AB8" t="n">
-        <v>1506.076281788503</v>
+        <v>1647.118224536415</v>
       </c>
       <c r="AC8" t="n">
-        <v>1362.338475245946</v>
+        <v>1489.919572931606</v>
       </c>
       <c r="AD8" t="n">
-        <v>1100736.530273393</v>
+        <v>1203818.970758407</v>
       </c>
       <c r="AE8" t="n">
-        <v>1506076.281788503</v>
+        <v>1647118.224536415</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342036493560791e-06</v>
+        <v>2.042454226142531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.3515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1362338.475245946</v>
+        <v>1489919.572931606</v>
       </c>
     </row>
     <row r="9">
@@ -59301,28 +59301,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1090.689132350035</v>
+        <v>1193.771572835049</v>
       </c>
       <c r="AB9" t="n">
-        <v>1492.328988689854</v>
+        <v>1633.370931437765</v>
       </c>
       <c r="AC9" t="n">
-        <v>1349.903204506184</v>
+        <v>1477.484302191845</v>
       </c>
       <c r="AD9" t="n">
-        <v>1090689.132350035</v>
+        <v>1193771.57283505</v>
       </c>
       <c r="AE9" t="n">
-        <v>1492328.988689854</v>
+        <v>1633370.931437765</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345485384168026e-06</v>
+        <v>2.047703115595276e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1349903.204506184</v>
+        <v>1477484.302191845</v>
       </c>
     </row>
     <row r="10">
@@ -59407,28 +59407,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1096.876723191103</v>
+        <v>1199.959163676118</v>
       </c>
       <c r="AB10" t="n">
-        <v>1500.795123455845</v>
+        <v>1641.837066203756</v>
       </c>
       <c r="AC10" t="n">
-        <v>1357.561343252404</v>
+        <v>1485.142440938065</v>
       </c>
       <c r="AD10" t="n">
-        <v>1096876.723191103</v>
+        <v>1199959.163676118</v>
       </c>
       <c r="AE10" t="n">
-        <v>1500795.123455845</v>
+        <v>1641837.066203756</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.345380872331443e-06</v>
+        <v>2.047544058339132e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1357561.343252404</v>
+        <v>1485142.440938065</v>
       </c>
     </row>
   </sheetData>
@@ -59704,28 +59704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2939.775329696169</v>
+        <v>3111.180633055252</v>
       </c>
       <c r="AB2" t="n">
-        <v>4022.330299824749</v>
+        <v>4256.854597748956</v>
       </c>
       <c r="AC2" t="n">
-        <v>3638.444741385355</v>
+        <v>3850.586369472586</v>
       </c>
       <c r="AD2" t="n">
-        <v>2939775.329696169</v>
+        <v>3111180.633055252</v>
       </c>
       <c r="AE2" t="n">
-        <v>4022330.299824749</v>
+        <v>4256854.597748956</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.057849568183027e-07</v>
+        <v>1.202964979115578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.64778645833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3638444.741385356</v>
+        <v>3850586.369472586</v>
       </c>
     </row>
     <row r="3">
@@ -59810,28 +59810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1853.099843362908</v>
+        <v>1983.674040956836</v>
       </c>
       <c r="AB3" t="n">
-        <v>2535.492958684383</v>
+        <v>2714.150336359434</v>
       </c>
       <c r="AC3" t="n">
-        <v>2293.509069294262</v>
+        <v>2455.115637591212</v>
       </c>
       <c r="AD3" t="n">
-        <v>1853099.843362908</v>
+        <v>1983674.040956835</v>
       </c>
       <c r="AE3" t="n">
-        <v>2535492.958684383</v>
+        <v>2714150.336359434</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.064787264367043e-06</v>
+        <v>1.589632293831299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.76171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2293509.069294262</v>
+        <v>2455115.637591212</v>
       </c>
     </row>
     <row r="4">
@@ -59916,28 +59916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1613.364064558752</v>
+        <v>1727.605909355168</v>
       </c>
       <c r="AB4" t="n">
-        <v>2207.475889728421</v>
+        <v>2363.786621773365</v>
       </c>
       <c r="AC4" t="n">
-        <v>1996.79748902461</v>
+        <v>2138.190144186675</v>
       </c>
       <c r="AD4" t="n">
-        <v>1613364.064558752</v>
+        <v>1727605.909355168</v>
       </c>
       <c r="AE4" t="n">
-        <v>2207475.889728421</v>
+        <v>2363786.621773365</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.157359961703811e-06</v>
+        <v>1.727835063659762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.30078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1996797.48902461</v>
+        <v>2138190.144186675</v>
       </c>
     </row>
     <row r="5">
@@ -60022,28 +60022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1498.86516074154</v>
+        <v>1613.021664683384</v>
       </c>
       <c r="AB5" t="n">
-        <v>2050.813438190579</v>
+        <v>2207.007403113325</v>
       </c>
       <c r="AC5" t="n">
-        <v>1855.086681984408</v>
+        <v>1996.373714114534</v>
       </c>
       <c r="AD5" t="n">
-        <v>1498865.160741539</v>
+        <v>1613021.664683384</v>
       </c>
       <c r="AE5" t="n">
-        <v>2050813.438190579</v>
+        <v>2207007.403113325</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.205860005308509e-06</v>
+        <v>1.800241297417718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1855086.681984408</v>
+        <v>1996373.714114534</v>
       </c>
     </row>
     <row r="6">
@@ -60128,28 +60128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1427.087168175127</v>
+        <v>1541.328923462992</v>
       </c>
       <c r="AB6" t="n">
-        <v>1952.603622139671</v>
+        <v>2108.914231715066</v>
       </c>
       <c r="AC6" t="n">
-        <v>1766.249872939055</v>
+        <v>1907.642417319893</v>
       </c>
       <c r="AD6" t="n">
-        <v>1427087.168175127</v>
+        <v>1541328.923462992</v>
       </c>
       <c r="AE6" t="n">
-        <v>1952603.62213967</v>
+        <v>2108914.231715066</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.234738661977696e-06</v>
+        <v>1.843354552788119e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.52994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1766249.872939055</v>
+        <v>1907642.417319893</v>
       </c>
     </row>
     <row r="7">
@@ -60234,28 +60234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1378.515640095902</v>
+        <v>1484.591263739287</v>
       </c>
       <c r="AB7" t="n">
-        <v>1886.14591459709</v>
+        <v>2031.283262592205</v>
       </c>
       <c r="AC7" t="n">
-        <v>1706.13479573036</v>
+        <v>1837.420438934369</v>
       </c>
       <c r="AD7" t="n">
-        <v>1378515.640095902</v>
+        <v>1484591.263739287</v>
       </c>
       <c r="AE7" t="n">
-        <v>1886145.91459709</v>
+        <v>2031283.262592205</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.254863161398733e-06</v>
+        <v>1.873398633185611e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.103515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1706134.79573036</v>
+        <v>1837420.438934369</v>
       </c>
     </row>
     <row r="8">
@@ -60340,28 +60340,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1332.867052884162</v>
+        <v>1447.023467317455</v>
       </c>
       <c r="AB8" t="n">
-        <v>1823.687503700451</v>
+        <v>1979.881346153649</v>
       </c>
       <c r="AC8" t="n">
-        <v>1649.637327908767</v>
+        <v>1790.924249257666</v>
       </c>
       <c r="AD8" t="n">
-        <v>1332867.052884162</v>
+        <v>1447023.467317455</v>
       </c>
       <c r="AE8" t="n">
-        <v>1823687.503700451</v>
+        <v>1979881.346153649</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.269151555987669e-06</v>
+        <v>1.89472993026783e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1649637.327908766</v>
+        <v>1790924.249257666</v>
       </c>
     </row>
     <row r="9">
@@ -60446,28 +60446,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1300.372350481725</v>
+        <v>1406.533225471131</v>
       </c>
       <c r="AB9" t="n">
-        <v>1779.226818308343</v>
+        <v>1924.480810956108</v>
       </c>
       <c r="AC9" t="n">
-        <v>1609.419907929517</v>
+        <v>1740.811063384238</v>
       </c>
       <c r="AD9" t="n">
-        <v>1300372.350481725</v>
+        <v>1406533.225471131</v>
       </c>
       <c r="AE9" t="n">
-        <v>1779226.818308343</v>
+        <v>1924480.810956108</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.280018785675029e-06</v>
+        <v>1.910953733682476e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.58919270833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1609419.907929517</v>
+        <v>1740811.063384238</v>
       </c>
     </row>
     <row r="10">
@@ -60552,28 +60552,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1272.550801984074</v>
+        <v>1378.541084772887</v>
       </c>
       <c r="AB10" t="n">
-        <v>1741.160148253762</v>
+        <v>1886.18072912668</v>
       </c>
       <c r="AC10" t="n">
-        <v>1574.986267438039</v>
+        <v>1706.166287610109</v>
       </c>
       <c r="AD10" t="n">
-        <v>1272550.801984074</v>
+        <v>1378541.084772887</v>
       </c>
       <c r="AE10" t="n">
-        <v>1741160.148253762</v>
+        <v>1886180.72912668</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.287666095455023e-06</v>
+        <v>1.922370484233523e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.439453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1574986.267438039</v>
+        <v>1706166.287610109</v>
       </c>
     </row>
     <row r="11">
@@ -60658,28 +60658,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1241.083804990513</v>
+        <v>1347.074087779326</v>
       </c>
       <c r="AB11" t="n">
-        <v>1698.105614741241</v>
+        <v>1843.126195614159</v>
       </c>
       <c r="AC11" t="n">
-        <v>1536.040798176535</v>
+        <v>1667.220818348605</v>
       </c>
       <c r="AD11" t="n">
-        <v>1241083.804990513</v>
+        <v>1347074.087779326</v>
       </c>
       <c r="AE11" t="n">
-        <v>1698105.614741241</v>
+        <v>1843126.195614159</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.295816517720542e-06</v>
+        <v>1.934538336794507e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.27669270833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1536040.798176535</v>
+        <v>1667220.818348605</v>
       </c>
     </row>
     <row r="12">
@@ -60764,28 +60764,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1217.009074561254</v>
+        <v>1322.999357350067</v>
       </c>
       <c r="AB12" t="n">
-        <v>1665.165506465781</v>
+        <v>1810.1860873387</v>
       </c>
       <c r="AC12" t="n">
-        <v>1506.244447603153</v>
+        <v>1637.424467775224</v>
       </c>
       <c r="AD12" t="n">
-        <v>1217009.074561254</v>
+        <v>1322999.357350067</v>
       </c>
       <c r="AE12" t="n">
-        <v>1665165.506465781</v>
+        <v>1810186.087338699</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.300545775084486e-06</v>
+        <v>1.941598695687918e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.185546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1506244.447603153</v>
+        <v>1637424.467775224</v>
       </c>
     </row>
     <row r="13">
@@ -60870,28 +60870,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1212.638015505767</v>
+        <v>1318.628298294581</v>
       </c>
       <c r="AB13" t="n">
-        <v>1659.184830628549</v>
+        <v>1804.205411501467</v>
       </c>
       <c r="AC13" t="n">
-        <v>1500.834559073895</v>
+        <v>1632.014579245965</v>
       </c>
       <c r="AD13" t="n">
-        <v>1212638.015505767</v>
+        <v>1318628.298294581</v>
       </c>
       <c r="AE13" t="n">
-        <v>1659184.830628549</v>
+        <v>1804205.411501467</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.30255822502659e-06</v>
+        <v>1.944603103727667e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.146484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1500834.559073895</v>
+        <v>1632014.579245965</v>
       </c>
     </row>
     <row r="14">
@@ -60976,28 +60976,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1218.889649665226</v>
+        <v>1324.879932454039</v>
       </c>
       <c r="AB14" t="n">
-        <v>1667.738592288154</v>
+        <v>1812.759173161073</v>
       </c>
       <c r="AC14" t="n">
-        <v>1508.571961725988</v>
+        <v>1639.751981898058</v>
       </c>
       <c r="AD14" t="n">
-        <v>1218889.649665226</v>
+        <v>1324879.932454039</v>
       </c>
       <c r="AE14" t="n">
-        <v>1667738.592288154</v>
+        <v>1812759.173161073</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.302457602529484e-06</v>
+        <v>1.944452883325679e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.14973958333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1508571.961725988</v>
+        <v>1639751.981898058</v>
       </c>
     </row>
   </sheetData>
